--- a/excel/investment_model.xlsx
+++ b/excel/investment_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffm\OneDrive\Desktop\kenya-digital-lending-2026\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33CF483-92BC-437F-8191-CE356168A7AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A62AFB-CF76-4C4A-9855-E8F51CB54ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10800" windowHeight="10905" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="12510" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ASSUMPTIONS" sheetId="1" r:id="rId1"/>
@@ -1271,7 +1271,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$KES]\ * #,##0.00_-;\-[$KES]\ * #,##0.00_-;_-[$KES]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$KES]\ * #,##0.00_-;\-[$KES]\ * #,##0.00_-;_-[$KES]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1341,10 +1341,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="B35" s="2">
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -2045,7 +2045,7 @@
         <v>62</v>
       </c>
       <c r="B36" s="2">
-        <v>0.184</v>
+        <v>0.2006</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>5</v>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B43" s="2">
         <f>(B34*B40)+(B35*B41)+(B36*B42)</f>
-        <v>8.2199999999999995E-2</v>
+        <v>8.5970000000000005E-2</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>5</v>
@@ -2702,151 +2702,151 @@
         <v>134</v>
       </c>
       <c r="B10" s="2">
-        <f>B9*approval_rate</f>
+        <f t="shared" ref="B10:AL10" si="2">B9*approval_rate</f>
         <v>19164750</v>
       </c>
       <c r="C10" s="2">
-        <f>C9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="D10" s="2">
-        <f>D9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="E10" s="2">
-        <f>E9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="F10" s="2">
-        <f>F9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="G10" s="2">
-        <f>G9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="H10" s="2">
-        <f>H9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="I10" s="2">
-        <f>I9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="J10" s="2">
-        <f>J9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="K10" s="2">
-        <f>K9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="L10" s="2">
-        <f>L9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="M10" s="2">
-        <f>M9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="N10" s="2">
-        <f>N9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="O10" s="2">
-        <f>O9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="P10" s="2">
-        <f>P9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="Q10" s="2">
-        <f>Q9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="R10" s="2">
-        <f>R9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="S10" s="2">
-        <f>S9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="T10" s="2">
-        <f>T9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="U10" s="2">
-        <f>U9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="V10" s="2">
-        <f>V9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="W10" s="2">
-        <f>W9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="X10" s="2">
-        <f>X9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="Y10" s="2">
-        <f>Y9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="Z10" s="2">
-        <f>Z9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AA10" s="2">
-        <f>AA9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AB10" s="2">
-        <f>AB9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AC10" s="2">
-        <f>AC9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AD10" s="2">
-        <f>AD9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AE10" s="2">
-        <f>AE9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AF10" s="2">
-        <f>AF9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AG10" s="2">
-        <f>AG9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AH10" s="2">
-        <f>AH9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AI10" s="2">
-        <f>AI9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AJ10" s="2">
-        <f>AJ9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AK10" s="2">
-        <f>AK9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
       <c r="AL10" s="2">
-        <f>AL9*approval_rate</f>
+        <f t="shared" si="2"/>
         <v>19164750</v>
       </c>
     </row>
@@ -2858,147 +2858,147 @@
         <v>1E-3</v>
       </c>
       <c r="C11" s="2">
-        <f>B11*(1+monthly_growth_rate)</f>
+        <f t="shared" ref="C11:AL11" si="3">B11*(1+monthly_growth_rate)</f>
         <v>1.08E-3</v>
       </c>
       <c r="D11" s="2">
-        <f>C11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.1664000000000002E-3</v>
       </c>
       <c r="E11" s="2">
-        <f>D11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.2597120000000003E-3</v>
       </c>
       <c r="F11" s="2">
-        <f>E11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.3604889600000005E-3</v>
       </c>
       <c r="G11" s="2">
-        <f>F11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.4693280768000006E-3</v>
       </c>
       <c r="H11" s="2">
-        <f>G11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.5868743229440008E-3</v>
       </c>
       <c r="I11" s="2">
-        <f>H11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.7138242687795211E-3</v>
       </c>
       <c r="J11" s="2">
-        <f>I11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.8509302102818828E-3</v>
       </c>
       <c r="K11" s="2">
-        <f>J11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.9990046271044335E-3</v>
       </c>
       <c r="L11" s="2">
-        <f>K11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>2.1589249972727882E-3</v>
       </c>
       <c r="M11" s="2">
-        <f>L11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>2.3316389970546116E-3</v>
       </c>
       <c r="N11" s="2">
-        <f>M11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>2.5181701168189808E-3</v>
       </c>
       <c r="O11" s="2">
-        <f>N11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>2.7196237261644996E-3</v>
       </c>
       <c r="P11" s="2">
-        <f>O11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>2.9371936242576597E-3</v>
       </c>
       <c r="Q11" s="2">
-        <f>P11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>3.1721691141982727E-3</v>
       </c>
       <c r="R11" s="2">
-        <f>Q11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>3.4259426433341346E-3</v>
       </c>
       <c r="S11" s="2">
-        <f>R11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>3.7000180548008655E-3</v>
       </c>
       <c r="T11" s="2">
-        <f>S11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>3.9960194991849347E-3</v>
       </c>
       <c r="U11" s="2">
-        <f>T11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>4.3157010591197299E-3</v>
       </c>
       <c r="V11" s="2">
-        <f>U11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>4.6609571438493086E-3</v>
       </c>
       <c r="W11" s="2">
-        <f>V11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>5.033833715357254E-3</v>
       </c>
       <c r="X11" s="2">
-        <f>W11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>5.4365404125858345E-3</v>
       </c>
       <c r="Y11" s="2">
-        <f>X11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>5.8714636455927021E-3</v>
       </c>
       <c r="Z11" s="2">
-        <f>Y11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>6.3411807372401189E-3</v>
       </c>
       <c r="AA11" s="2">
-        <f>Z11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>6.8484751962193287E-3</v>
       </c>
       <c r="AB11" s="2">
-        <f>AA11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>7.3963532119168751E-3</v>
       </c>
       <c r="AC11" s="2">
-        <f>AB11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>7.9880614688702251E-3</v>
       </c>
       <c r="AD11" s="2">
-        <f>AC11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>8.6271063863798438E-3</v>
       </c>
       <c r="AE11" s="2">
-        <f>AD11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>9.3172748972902321E-3</v>
       </c>
       <c r="AF11" s="2">
-        <f>AE11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.0062656889073452E-2</v>
       </c>
       <c r="AG11" s="2">
-        <f>AF11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.0867669440199328E-2</v>
       </c>
       <c r="AH11" s="2">
-        <f>AG11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.1737082995415276E-2</v>
       </c>
       <c r="AI11" s="2">
-        <f>AH11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.2676049635048498E-2</v>
       </c>
       <c r="AJ11" s="2">
-        <f>AI11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.3690133605852379E-2</v>
       </c>
       <c r="AK11" s="2">
-        <f>AJ11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.478534429432057E-2</v>
       </c>
       <c r="AL11" s="2">
-        <f>AK11*(1+monthly_growth_rate)</f>
+        <f t="shared" si="3"/>
         <v>1.5968171837866217E-2</v>
       </c>
     </row>
@@ -3015,143 +3015,143 @@
         <v>20697.93</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ref="C12:AL12" si="2">D10*D11</f>
+        <f t="shared" ref="D12:AL12" si="4">D10*D11</f>
         <v>22353.764400000004</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24142.065552000007</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>26073.43079616001</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>28159.305259852812</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30412.049680641041</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>32845.013655092327</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>35472.614747499712</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>38310.423927299693</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>41375.257841483668</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>44685.278468802368</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>48260.100746306562</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>52120.908806011095</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>56290.581510491982</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>60793.828031331344</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>65657.334273837856</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>70909.921015744883</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>76582.714697004471</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>82709.331872764844</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>89326.078422586041</v>
       </c>
       <c r="W12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>96472.164696392938</v>
       </c>
       <c r="X12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>104189.93787210438</v>
       </c>
       <c r="Y12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>112525.13290187274</v>
       </c>
       <c r="Z12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121527.14353402257</v>
       </c>
       <c r="AA12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>131249.31501674437</v>
       </c>
       <c r="AB12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>141749.26021808395</v>
       </c>
       <c r="AC12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>153089.20103553066</v>
       </c>
       <c r="AD12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>165336.33711837311</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>178563.24408784296</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>192848.30361487044</v>
       </c>
       <c r="AG12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>208276.16790406007</v>
       </c>
       <c r="AH12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>224938.26133638489</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>242933.3222432957</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>262367.98802275938</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>283357.42706458014</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>306026.02122974658</v>
       </c>
     </row>
@@ -3321,147 +3321,147 @@
         <v>0</v>
       </c>
       <c r="C16" s="2">
-        <f>B12*repeat_rate</f>
+        <f t="shared" ref="C16:AL16" si="5">B12*repeat_rate</f>
         <v>12457.0875</v>
       </c>
       <c r="D16" s="2">
-        <f>C12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>13453.654500000001</v>
       </c>
       <c r="E16" s="2">
-        <f>D12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>14529.946860000004</v>
       </c>
       <c r="F16" s="2">
-        <f>E12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>15692.342608800005</v>
       </c>
       <c r="G16" s="2">
-        <f>F12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>16947.730017504007</v>
       </c>
       <c r="H16" s="2">
-        <f>G12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>18303.548418904327</v>
       </c>
       <c r="I16" s="2">
-        <f>H12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>19767.832292416679</v>
       </c>
       <c r="J16" s="2">
-        <f>I12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>21349.258875810014</v>
       </c>
       <c r="K16" s="2">
-        <f>J12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>23057.199585874812</v>
       </c>
       <c r="L16" s="2">
-        <f>K12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>24901.775552744803</v>
       </c>
       <c r="M16" s="2">
-        <f>L12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>26893.917596964384</v>
       </c>
       <c r="N16" s="2">
-        <f>M12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>29045.43100472154</v>
       </c>
       <c r="O16" s="2">
-        <f>N12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>31369.065485099265</v>
       </c>
       <c r="P16" s="2">
-        <f>O12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>33878.590723907211</v>
       </c>
       <c r="Q16" s="2">
-        <f>P12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>36588.877981819787</v>
       </c>
       <c r="R16" s="2">
-        <f>Q12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>39515.988220365376</v>
       </c>
       <c r="S16" s="2">
-        <f>R12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>42677.267277994608</v>
       </c>
       <c r="T16" s="2">
-        <f>S12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>46091.448660234179</v>
       </c>
       <c r="U16" s="2">
-        <f>T12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>49778.764553052904</v>
       </c>
       <c r="V16" s="2">
-        <f>U12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>53761.065717297148</v>
       </c>
       <c r="W16" s="2">
-        <f>V12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>58061.950974680927</v>
       </c>
       <c r="X16" s="2">
-        <f>W12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>62706.907052655413</v>
       </c>
       <c r="Y16" s="2">
-        <f>X12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>67723.45961686784</v>
       </c>
       <c r="Z16" s="2">
-        <f>Y12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>73141.336386217285</v>
       </c>
       <c r="AA16" s="2">
-        <f>Z12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>78992.643297114671</v>
       </c>
       <c r="AB16" s="2">
-        <f>AA12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>85312.054760883839</v>
       </c>
       <c r="AC16" s="2">
-        <f>AB12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>92137.019141754572</v>
       </c>
       <c r="AD16" s="2">
-        <f>AC12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>99507.980673094935</v>
       </c>
       <c r="AE16" s="2">
-        <f>AD12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>107468.61912694252</v>
       </c>
       <c r="AF16" s="2">
-        <f>AE12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>116066.10865709792</v>
       </c>
       <c r="AG16" s="2">
-        <f>AF12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>125351.39734966579</v>
       </c>
       <c r="AH16" s="2">
-        <f>AG12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>135379.50913763905</v>
       </c>
       <c r="AI16" s="2">
-        <f>AH12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>146209.86986865019</v>
       </c>
       <c r="AJ16" s="2">
-        <f>AI12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>157906.65945814221</v>
       </c>
       <c r="AK16" s="2">
-        <f>AJ12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>170539.19221479361</v>
       </c>
       <c r="AL16" s="2">
-        <f>AK12*repeat_rate</f>
+        <f t="shared" si="5"/>
         <v>184182.32759197711</v>
       </c>
     </row>
@@ -3478,143 +3478,143 @@
         <v>16290.0375</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" ref="C17:AL17" si="3">D15+D16</f>
+        <f t="shared" ref="D17:AL17" si="6">D15+D16</f>
         <v>17593.240500000004</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>19000.699740000007</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>20520.755719200009</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>22162.416176736009</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>23935.409470874893</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>25850.242228544888</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>27918.261606828477</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30151.72253537476</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>32563.860338204744</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>35168.969165261122</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>37982.486698482018</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>41021.085634360585</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>44302.772485109432</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>47846.994283918189</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>51674.753826631648</v>
       </c>
       <c r="S17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>55808.734132762176</v>
       </c>
       <c r="T17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60273.432863383154</v>
       </c>
       <c r="U17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65095.307492453816</v>
       </c>
       <c r="V17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>70302.932091850118</v>
       </c>
       <c r="W17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75927.166659198148</v>
       </c>
       <c r="X17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>82001.339991934001</v>
       </c>
       <c r="Y17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>88561.447191288724</v>
       </c>
       <c r="Z17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>95646.362966591842</v>
       </c>
       <c r="AA17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>103298.07200391918</v>
       </c>
       <c r="AB17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>111561.91776423274</v>
       </c>
       <c r="AC17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120486.87118537136</v>
       </c>
       <c r="AD17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>130125.82088020108</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>140535.88655061717</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>151778.75747466658</v>
       </c>
       <c r="AG17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>163921.05807263986</v>
       </c>
       <c r="AH17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>177034.74271845107</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>191197.52213592717</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>206493.32390680138</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>223012.78981934549</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240853.81300489316</v>
       </c>
     </row>
@@ -3623,151 +3623,151 @@
         <v>141</v>
       </c>
       <c r="B18" s="2">
-        <f>B17*avg_loan_size</f>
+        <f t="shared" ref="B18:AL18" si="7">B17*avg_loan_size</f>
         <v>287471250</v>
       </c>
       <c r="C18" s="2">
-        <f>C17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>244350562.5</v>
       </c>
       <c r="D18" s="2">
-        <f>D17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>263898607.50000006</v>
       </c>
       <c r="E18" s="2">
-        <f>E17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>285010496.10000008</v>
       </c>
       <c r="F18" s="2">
-        <f>F17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>307811335.78800017</v>
       </c>
       <c r="G18" s="2">
-        <f>G17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>332436242.65104014</v>
       </c>
       <c r="H18" s="2">
-        <f>H17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>359031142.0631234</v>
       </c>
       <c r="I18" s="2">
-        <f>I17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>387753633.4281733</v>
       </c>
       <c r="J18" s="2">
-        <f>J17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>418773924.10242712</v>
       </c>
       <c r="K18" s="2">
-        <f>K17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>452275838.03062141</v>
       </c>
       <c r="L18" s="2">
-        <f>L17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>488457905.07307118</v>
       </c>
       <c r="M18" s="2">
-        <f>M17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>527534537.47891682</v>
       </c>
       <c r="N18" s="2">
-        <f>N17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>569737300.47723031</v>
       </c>
       <c r="O18" s="2">
-        <f>O17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>615316284.51540875</v>
       </c>
       <c r="P18" s="2">
-        <f>P17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>664541587.27664149</v>
       </c>
       <c r="Q18" s="2">
-        <f>Q17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>717704914.25877285</v>
       </c>
       <c r="R18" s="2">
-        <f>R17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>775121307.39947474</v>
       </c>
       <c r="S18" s="2">
-        <f>S17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>837131011.99143267</v>
       </c>
       <c r="T18" s="2">
-        <f>T17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>904101492.95074725</v>
       </c>
       <c r="U18" s="2">
-        <f>U17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>976429612.3868072</v>
       </c>
       <c r="V18" s="2">
-        <f>V17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1054543981.3777518</v>
       </c>
       <c r="W18" s="2">
-        <f>W17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1138907499.8879721</v>
       </c>
       <c r="X18" s="2">
-        <f>X17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1230020099.87901</v>
       </c>
       <c r="Y18" s="2">
-        <f>Y17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1328421707.8693309</v>
       </c>
       <c r="Z18" s="2">
-        <f>Z17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1434695444.4988775</v>
       </c>
       <c r="AA18" s="2">
-        <f>AA17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1549471080.0587876</v>
       </c>
       <c r="AB18" s="2">
-        <f>AB17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1673428766.4634912</v>
       </c>
       <c r="AC18" s="2">
-        <f>AC17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1807303067.7805705</v>
       </c>
       <c r="AD18" s="2">
-        <f>AD17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>1951887313.2030163</v>
       </c>
       <c r="AE18" s="2">
-        <f>AE17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>2108038298.2592576</v>
       </c>
       <c r="AF18" s="2">
-        <f>AF17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>2276681362.1199985</v>
       </c>
       <c r="AG18" s="2">
-        <f>AG17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>2458815871.0895977</v>
       </c>
       <c r="AH18" s="2">
-        <f>AH17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>2655521140.7767663</v>
       </c>
       <c r="AI18" s="2">
-        <f>AI17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>2867962832.0389075</v>
       </c>
       <c r="AJ18" s="2">
-        <f>AJ17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>3097399858.6020207</v>
       </c>
       <c r="AK18" s="2">
-        <f>AK17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>3345191847.2901821</v>
       </c>
       <c r="AL18" s="2">
-        <f>AL17*avg_loan_size</f>
+        <f t="shared" si="7"/>
         <v>3612807195.0733976</v>
       </c>
     </row>
@@ -3793,139 +3793,139 @@
         <v>53048.028000000006</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="D21:AL21" si="4">E17+D21</f>
+        <f t="shared" ref="E21:AL21" si="8">E17+D21</f>
         <v>72048.727740000017</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>92569.483459200026</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>114731.89963593603</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>138667.30910681092</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>164517.55133535582</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>192435.8129421843</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>222587.53547755905</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>255151.3958157638</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>290320.36498102493</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>328302.85167950694</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>369323.9373138675</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>413626.70979897695</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>461473.70408289513</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>513148.45790952677</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>568957.19204228895</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>629230.62490567216</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>694325.93239812599</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>764628.86448997608</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>840556.0311491742</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>922557.37114110822</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1011118.8183323969</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1106765.1812989889</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1210063.253302908</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1321625.1710671408</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1442112.0422525122</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1572237.8631327134</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1712773.7496833305</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1864552.5071579972</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2028473.5652306371</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2205508.307949088</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2396705.8300850154</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2603199.1539918166</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2826211.9438111619</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3067065.7568160552</v>
       </c>
     </row>
@@ -3942,143 +3942,143 @@
         <v>531.82181249999996</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" ref="D22:AL22" si="5">(D18/1000000)+C22</f>
+        <f t="shared" ref="D22:AL22" si="9">(D18/1000000)+C22</f>
         <v>795.7204200000001</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1080.7309161000003</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1388.5422518880005</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1720.9784945390406</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2080.0096366021639</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2467.7632700303375</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2886.5371941327649</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3338.8130321633862</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>3827.2709372364575</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4354.8054747153747</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4924.5427751926054</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5539.8590597080138</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6204.4006469846554</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6922.1055612434284</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7697.2268686429034</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8534.3578806343357</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9438.4593735850831</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10414.888985971891</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11469.432967349643</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>12608.340467237615</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>13838.360567116624</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>15166.782274985955</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>16601.477719484832</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>18150.948799543621</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>19824.377566007111</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>21631.680633787681</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>23583.567946990697</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>25691.606245249954</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>27968.287607369952</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>30427.10347845955</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>33082.624619236318</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>35950.587451275227</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>39047.987309877251</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>42393.179157167433</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>46005.986352240827</v>
       </c>
     </row>
@@ -4092,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87358522-93AE-477E-90C1-56F6D0C5FA81}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,7 +4183,7 @@
       </c>
       <c r="C6" s="2">
         <f>PD_nearprime</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="D6" s="2">
         <f>LGD_nearprime</f>
@@ -4191,14 +4191,14 @@
       </c>
       <c r="E6" s="2">
         <f t="shared" ref="E6:E9" si="0">C6*D6</f>
-        <v>3.4200000000000001E-2</v>
+        <v>3.465E-2</v>
       </c>
       <c r="F6" s="2">
         <v>1</v>
       </c>
       <c r="G6" s="1">
         <f>cost_of_debt+origination_fee+E6+0.08</f>
-        <v>0.31420000000000003</v>
+        <v>0.31465000000000004</v>
       </c>
       <c r="H6" s="2">
         <v>50000</v>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="C7" s="2">
         <f>PD_subprime</f>
-        <v>0.184</v>
+        <v>0.2006</v>
       </c>
       <c r="D7" s="2">
         <f>LGD_subprime</f>
@@ -4222,14 +4222,14 @@
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.1104</v>
+        <v>0.12035999999999999</v>
       </c>
       <c r="F7" s="2">
         <v>0.7</v>
       </c>
       <c r="G7" s="1">
         <f>cost_of_debt+origination_fee+E7+0.08</f>
-        <v>0.39040000000000002</v>
+        <v>0.40035999999999999</v>
       </c>
       <c r="H7" s="2">
         <v>25000</v>
@@ -4248,7 +4248,7 @@
       </c>
       <c r="C9" s="2">
         <f>portfolio_PD</f>
-        <v>8.2199999999999995E-2</v>
+        <v>8.5970000000000005E-2</v>
       </c>
       <c r="D9" s="2">
         <f>portfolio_LGD</f>
@@ -4256,11 +4256,11 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="G9" s="1">
         <f>cost_of_debt+origination_fee+E9+0.08</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
     </row>
   </sheetData>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="B8" s="4">
         <f>RISK_SEGMENTS!G9</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="B9" s="4">
         <f>B8/12</f>
-        <v>2.6381583333333333E-2</v>
+        <v>2.6521387500000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="B11" s="4">
         <f>portfolio_PD</f>
-        <v>8.2199999999999995E-2</v>
+        <v>8.5970000000000005E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4378,7 +4378,7 @@
       </c>
       <c r="B12" s="4">
         <f>portfolio_PD/12</f>
-        <v>6.8499999999999993E-3</v>
+        <v>7.1641666666666668E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,35 +4534,35 @@
       </c>
       <c r="C23" s="1">
         <f>B23*$B$12</f>
-        <v>1969178.0624999998</v>
+        <v>2059491.9468750001</v>
       </c>
       <c r="D23" s="4">
         <f>B23-C23</f>
-        <v>285502071.9375</v>
+        <v>285411758.05312502</v>
       </c>
       <c r="E23" s="5">
         <f>PMT($B$9,$B$10,-D23)</f>
-        <v>100232267.99283539</v>
+        <v>100227622.22898452</v>
       </c>
       <c r="F23" s="4">
         <f>D23*$B$9</f>
-        <v>7531996.7026584847</v>
+        <v>7569515.8323831754</v>
       </c>
       <c r="G23" s="5">
         <f>E23-F23</f>
-        <v>92700271.290176898</v>
+        <v>92658106.396601349</v>
       </c>
       <c r="H23" s="5">
         <f>C23*(1-$B$13)</f>
-        <v>1092893.8246874998</v>
+        <v>1143018.0305156249</v>
       </c>
       <c r="I23" s="5">
         <f>D23-G23</f>
-        <v>192801800.6473231</v>
+        <v>192753651.65652367</v>
       </c>
       <c r="J23" s="5">
         <f>E23+H23</f>
-        <v>101325161.81752288</v>
+        <v>101370640.25950015</v>
       </c>
       <c r="K23" s="5">
         <f>-B23*$B$16</f>
@@ -4574,11 +4574,11 @@
       </c>
       <c r="M23" s="5">
         <f>J23+K23+L23</f>
-        <v>96533974.317522883</v>
+        <v>96579452.759500146</v>
       </c>
       <c r="N23" s="5">
         <f>N22+M23</f>
-        <v>-173689000.68247712</v>
+        <v>-173643522.24049985</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -4588,55 +4588,55 @@
       </c>
       <c r="B24" s="4">
         <f>I23</f>
-        <v>192801800.6473231</v>
+        <v>192753651.65652367</v>
       </c>
       <c r="C24" s="1">
         <f>B24*$B$12</f>
-        <v>1320692.3344341631</v>
+        <v>1380919.286075945</v>
       </c>
       <c r="D24" s="4">
         <f>B24-C24</f>
-        <v>191481108.31288895</v>
+        <v>191372732.37044773</v>
       </c>
       <c r="E24" s="5">
         <f>PMT($B$9,$B$10-1,-D24)</f>
-        <v>99545676.957084477</v>
+        <v>99509574.838732392</v>
       </c>
       <c r="F24" s="4">
         <f>D24*$B$9</f>
-        <v>5051574.8157155057</v>
+        <v>5075470.3921304382</v>
       </c>
       <c r="G24" s="5">
         <f>E24-F24</f>
-        <v>94494102.14136897</v>
+        <v>94434104.446601957</v>
       </c>
       <c r="H24" s="5">
         <f>C24*(1-$B$13)</f>
-        <v>732984.24561096041</v>
+        <v>766410.2037721494</v>
       </c>
       <c r="I24" s="5">
         <f>D24-G24</f>
-        <v>96987006.17151998</v>
+        <v>96938627.923845768</v>
       </c>
       <c r="J24" s="5">
         <f>E24+H24</f>
-        <v>100278661.20269544</v>
+        <v>100275985.04250453</v>
       </c>
       <c r="K24" s="5">
         <f>-B24*$B$16</f>
-        <v>-2249354.3408854362</v>
+        <v>-2248792.6026594429</v>
       </c>
       <c r="L24" s="5">
         <f>-B24*$B$17</f>
-        <v>-964009.00323661556</v>
+        <v>-963768.25828261836</v>
       </c>
       <c r="M24" s="5">
         <f>J24+K24+L24</f>
-        <v>97065297.858573392</v>
+        <v>97063424.181562468</v>
       </c>
       <c r="N24" s="5">
         <f>N23+M24</f>
-        <v>-76623702.823903725</v>
+        <v>-76580098.058937386</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -4646,31 +4646,31 @@
       </c>
       <c r="B25" s="4">
         <f>I24</f>
-        <v>96987006.17151998</v>
+        <v>96938627.923845768</v>
       </c>
       <c r="C25" s="1">
         <f>B25*$B$12</f>
-        <v>664360.99227491184</v>
+        <v>694484.48688441841</v>
       </c>
       <c r="D25" s="4">
         <f>B25-C25</f>
-        <v>96322645.17924507</v>
+        <v>96244143.436961353</v>
       </c>
       <c r="E25" s="5">
         <f>PMT($B$9,$B$10-2,-D25)</f>
-        <v>98863789.069928423</v>
+        <v>98796671.659658581</v>
       </c>
       <c r="F25" s="4">
         <f>D25*$B$9</f>
-        <v>2541143.890683352</v>
+        <v>2552528.2226972342</v>
       </c>
       <c r="G25" s="5">
         <f>E25-F25</f>
-        <v>96322645.17924507</v>
+        <v>96244143.436961353</v>
       </c>
       <c r="H25" s="5">
         <f>C25*(1-$B$13)</f>
-        <v>368720.35071257601</v>
+        <v>385438.89022085216</v>
       </c>
       <c r="I25" s="5">
         <f>D25-G25</f>
@@ -4678,23 +4678,23 @@
       </c>
       <c r="J25" s="5">
         <f>E25+H25</f>
-        <v>99232509.420641005</v>
+        <v>99182110.549879432</v>
       </c>
       <c r="K25" s="5">
         <f>-B25*$B$16</f>
-        <v>-1131515.0720010665</v>
+        <v>-1130950.659111534</v>
       </c>
       <c r="L25" s="5">
         <f>-B25*$B$17</f>
-        <v>-484935.03085759992</v>
+        <v>-484693.13961922884</v>
       </c>
       <c r="M25" s="5">
         <f>J25+K25+L25</f>
-        <v>97616059.317782342</v>
+        <v>97566466.751148671</v>
       </c>
       <c r="N25" s="5">
         <f>N24+M25</f>
-        <v>20992356.493878618</v>
+        <v>20986368.692211285</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="B29" s="1">
         <f>F23+F24+F25</f>
-        <v>15124715.409057342</v>
+        <v>15197514.447210846</v>
       </c>
       <c r="C29" s="1" t="str">
         <f>IF(B29&gt;0,"PASS","WARNING")</f>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="B30" s="1">
         <f>C23+C24+C25</f>
-        <v>3954231.3892090749</v>
+        <v>4134895.7198353638</v>
       </c>
       <c r="C30" s="1" t="str">
         <f>TEXT(B30/B7,"0.0%") &amp; " of original principal"</f>
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B31" s="6">
         <f>H23+H24+H25</f>
-        <v>2194598.4210110363</v>
+        <v>2294867.1245086263</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B32" s="6">
         <f>(B30-B31)</f>
-        <v>1759632.9681980386</v>
+        <v>1840028.5953267375</v>
       </c>
       <c r="C32" s="1" t="str">
         <f>TEXT(B32/B7,"0.0%") &amp; " loss rate"</f>
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B35" s="1">
         <f>IFERROR(IRR(M22:M25),"Negative — check cashflows")</f>
-        <v>3.8288031186600957E-2</v>
+        <v>3.8283675381971305E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B36" s="1">
         <f>(1+B35)^12-1</f>
-        <v>0.5696910166720428</v>
+        <v>0.56961199686904385</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B37" s="1">
         <f>IFERROR((J22+J23+J24+J25+H23+H24+H25)/$B$7,"Check")</f>
-        <v>1.1141260416889354</v>
+        <v>1.1144484117155811</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B5" s="1">
         <f>LOAN_CASHFLOWS!G23/LOAN_CASHFLOWS!B7</f>
-        <v>0.32246797302400465</v>
+        <v>0.32232129785709474</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B6" s="1">
         <f>LOAN_CASHFLOWS!G24/LOAN_CASHFLOWS!B7</f>
-        <v>0.32870800868389088</v>
+        <v>0.3284993001790682</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -4854,7 +4854,7 @@
       </c>
       <c r="B7" s="1">
         <f>LOAN_CASHFLOWS!G25/LOAN_CASHFLOWS!B7</f>
-        <v>0.33506879445942878</v>
+        <v>0.33479571761336602</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="B8" s="1">
         <f>SUM(B5:B7)</f>
-        <v>0.98624477616732431</v>
+        <v>0.98561631564952901</v>
       </c>
       <c r="C8" s="1" t="str">
         <f>IF(ABS(B8-1)&lt;0.05,"PASS — sums to ~100%","WARNING — check LOAN_CASHFLOWS")</f>
@@ -5307,143 +5307,143 @@
       </c>
       <c r="D16" s="1">
         <f>IFERROR(C15*$B$5,0)</f>
-        <v>78.795230596650356</v>
+        <v>78.759390437111136</v>
       </c>
       <c r="E16" s="1">
         <f>IFERROR(C15*$B$6 + D15*$B$5, 0)</f>
-        <v>165.41883586454605</v>
+        <v>165.32913045169173</v>
       </c>
       <c r="F16" s="1">
         <f>IFERROR(C15*$B$7 + D15*$B$6 + E15*$B$5, 0)</f>
-        <v>260.52659113606808</v>
+        <v>260.36298280924422</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" ref="G16:AL16" si="1">IFERROR(D15*$B$7 + E15*$B$6 + F15*$B$5, 0)</f>
-        <v>281.36871842695354</v>
+        <v>281.19202143398383</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>303.87821590110985</v>
+        <v>303.68738314870251</v>
       </c>
       <c r="I16" s="1">
         <f t="shared" si="1"/>
-        <v>328.18847317319864</v>
+        <v>327.98237380059879</v>
       </c>
       <c r="J16" s="1">
         <f t="shared" si="1"/>
-        <v>354.44355102705458</v>
+        <v>354.22096370464669</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="1"/>
-        <v>382.79903510921895</v>
+        <v>382.55864080101844</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="1"/>
-        <v>413.42295791795652</v>
+        <v>413.16333206509989</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>446.49679455139307</v>
+        <v>446.21639863030799</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="1"/>
-        <v>482.21653811550448</v>
+        <v>481.91371052073271</v>
       </c>
       <c r="O16" s="1">
         <f t="shared" si="1"/>
-        <v>520.79386116474495</v>
+        <v>520.46680736239136</v>
       </c>
       <c r="P16" s="1">
         <f t="shared" si="1"/>
-        <v>562.45737005792455</v>
+        <v>562.10415195138262</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="1"/>
-        <v>607.45395966255865</v>
+        <v>607.07248410749332</v>
       </c>
       <c r="R16" s="1">
         <f t="shared" si="1"/>
-        <v>656.05027643556332</v>
+        <v>655.6382828360928</v>
       </c>
       <c r="S16" s="1">
         <f t="shared" si="1"/>
-        <v>708.53429855040849</v>
+        <v>708.0893454629803</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" si="1"/>
-        <v>765.21704243444105</v>
+        <v>764.73649310001883</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>826.43440582919629</v>
+        <v>825.91541254802019</v>
       </c>
       <c r="V16" s="1">
         <f t="shared" si="1"/>
-        <v>892.54915829553215</v>
+        <v>891.98864555186174</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" si="1"/>
-        <v>963.95309095917492</v>
+        <v>963.34773719601094</v>
       </c>
       <c r="X16" s="1">
         <f t="shared" si="1"/>
-        <v>1041.0693382359088</v>
+        <v>1040.4155561716918</v>
       </c>
       <c r="Y16" s="1">
         <f t="shared" si="1"/>
-        <v>1124.3548852947818</v>
+        <v>1123.6488006654274</v>
       </c>
       <c r="Z16" s="1">
         <f t="shared" si="1"/>
-        <v>1214.3032761183645</v>
+        <v>1213.5407047186616</v>
       </c>
       <c r="AA16" s="1">
         <f t="shared" si="1"/>
-        <v>1311.4475382078335</v>
+        <v>1310.6239610961547</v>
       </c>
       <c r="AB16" s="1">
         <f t="shared" si="1"/>
-        <v>1416.3633412644604</v>
+        <v>1415.4738779838472</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" si="1"/>
-        <v>1529.6724085656174</v>
+        <v>1528.7117882225552</v>
       </c>
       <c r="AD16" s="1">
         <f t="shared" si="1"/>
-        <v>1652.0462012508667</v>
+        <v>1651.0087312803596</v>
       </c>
       <c r="AE16" s="1">
         <f t="shared" si="1"/>
-        <v>1784.2098973509364</v>
+        <v>1783.0894297827886</v>
       </c>
       <c r="AF16" s="1">
         <f t="shared" si="1"/>
-        <v>1926.9466891390116</v>
+        <v>1925.7365841654118</v>
       </c>
       <c r="AG16" s="1">
         <f t="shared" si="1"/>
-        <v>2081.1024242701328</v>
+        <v>2079.7955108986453</v>
       </c>
       <c r="AH16" s="1">
         <f t="shared" si="1"/>
-        <v>2247.5906182117428</v>
+        <v>2246.1791517705365</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" si="1"/>
-        <v>2427.3978676686825</v>
+        <v>2425.8734839121794</v>
       </c>
       <c r="AJ16" s="1">
         <f t="shared" si="1"/>
-        <v>2621.5896970821773</v>
+        <v>2619.9433626251539</v>
       </c>
       <c r="AK16" s="1">
         <f t="shared" si="1"/>
-        <v>2831.3168728487517</v>
+        <v>2829.5388316351664</v>
       </c>
       <c r="AL16" s="1">
         <f t="shared" si="1"/>
-        <v>3057.822222676652</v>
+        <v>3055.90193816598</v>
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.25">
@@ -5463,139 +5463,139 @@
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>429.45393940334969</v>
+        <v>429.48977956288888</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>548.30075803666307</v>
+        <v>548.39214238229169</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>594.27641971780895</v>
+        <v>594.47125867977149</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>643.67258615621029</v>
+        <v>643.96717604233856</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>697.01400922181904</v>
+        <v>697.41572838356183</v>
       </c>
       <c r="J17" s="1">
         <f t="shared" si="2"/>
-        <v>754.61709451604315</v>
+        <v>755.13398577235796</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="2"/>
-        <v>816.82279463780537</v>
+        <v>817.46354705136639</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="2"/>
-        <v>883.99933600084933</v>
+        <v>884.77333623123616</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="2"/>
-        <v>956.54440307220943</v>
+        <v>957.46179117193219</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>1034.8874950237687</v>
+        <v>1035.9592246994137</v>
       </c>
       <c r="O17" s="1">
         <f t="shared" si="2"/>
-        <v>1119.4924709088295</v>
+        <v>1120.7303746031416</v>
       </c>
       <c r="P17" s="1">
         <f t="shared" si="2"/>
-        <v>1210.860298452787</v>
+        <v>1212.2771576333594</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="2"/>
-        <v>1309.5320227470563</v>
+        <v>1311.141643818155</v>
       </c>
       <c r="R17" s="1">
         <f t="shared" si="2"/>
-        <v>1416.0919724385117</v>
+        <v>1417.9092687258867</v>
       </c>
       <c r="S17" s="1">
         <f t="shared" si="2"/>
-        <v>1531.1712224140842</v>
+        <v>1533.2123027086036</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="2"/>
-        <v>1655.4513335001229</v>
+        <v>1657.7335976849388</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="2"/>
-        <v>1789.6683913377053</v>
+        <v>1792.2106336656323</v>
       </c>
       <c r="V17" s="1">
         <f t="shared" si="2"/>
-        <v>1934.6173683679747</v>
+        <v>1937.4398890010966</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" si="2"/>
-        <v>2091.1568347762995</v>
+        <v>2094.2815602487844</v>
       </c>
       <c r="X17" s="1">
         <f t="shared" si="2"/>
-        <v>2260.214046311969</v>
+        <v>2263.6646596299502</v>
       </c>
       <c r="Y17" s="1">
         <f t="shared" si="2"/>
-        <v>2442.7904391334637</v>
+        <v>2446.5925202829444</v>
       </c>
       <c r="Z17" s="1">
         <f t="shared" si="2"/>
-        <v>2639.9675642413422</v>
+        <v>2644.1487419367782</v>
       </c>
       <c r="AA17" s="1">
         <f t="shared" si="2"/>
-        <v>2852.9134966657671</v>
+        <v>2857.50361223857</v>
       </c>
       <c r="AB17" s="1">
         <f t="shared" si="2"/>
-        <v>3082.8897573890226</v>
+        <v>3087.9210417871845</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" si="2"/>
-        <v>3331.2587890218424</v>
+        <v>3336.7660539695662</v>
       </c>
       <c r="AD17" s="1">
         <f t="shared" si="2"/>
-        <v>3599.4920295338347</v>
+        <v>3605.5128739839743</v>
       </c>
       <c r="AE17" s="1">
         <f t="shared" si="2"/>
-        <v>3889.1786318823483</v>
+        <v>3895.7536649850813</v>
       </c>
       <c r="AF17" s="1">
         <f t="shared" si="2"/>
-        <v>4202.0348812116436</v>
+        <v>4209.2079631206752</v>
       </c>
       <c r="AG17" s="1">
         <f t="shared" si="2"/>
-        <v>4539.914365427996</v>
+        <v>4547.7328673713</v>
       </c>
       <c r="AH17" s="1">
         <f t="shared" si="2"/>
-        <v>4904.8189594208079</v>
+        <v>4913.3340445770591</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" si="2"/>
-        <v>5298.9106880214158</v>
+        <v>5308.1776148665795</v>
       </c>
       <c r="AJ17" s="1">
         <f t="shared" si="2"/>
-        <v>5724.5245379985854</v>
+        <v>5734.6029879202688</v>
       </c>
       <c r="AK17" s="1">
         <f t="shared" si="2"/>
-        <v>6184.1822950136675</v>
+        <v>6195.1367261346541</v>
       </c>
       <c r="AL17" s="1">
         <f t="shared" si="2"/>
-        <v>6680.6074875321438</v>
+        <v>6692.5075168398525</v>
       </c>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.25">
@@ -5606,148 +5606,148 @@
         <v>0</v>
       </c>
       <c r="C18" s="1">
-        <f>B17*portfolio_PD/12</f>
+        <f t="shared" ref="C18:AL18" si="3">B17*portfolio_PD/12</f>
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <f>C17*portfolio_PD/12</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <f>D17*portfolio_PD/12</f>
-        <v>1.6738013531249998</v>
+        <f t="shared" si="3"/>
+        <v>1.7505681548437499</v>
       </c>
       <c r="F18" s="1">
-        <f>E17*portfolio_PD/12</f>
-        <v>2.9417594849129451</v>
+        <f t="shared" si="3"/>
+        <v>3.0769363624184631</v>
       </c>
       <c r="G18" s="1">
-        <f>F17*portfolio_PD/12</f>
-        <v>3.7558601925511419</v>
+        <f t="shared" si="3"/>
+        <v>3.928772706717135</v>
       </c>
       <c r="H18" s="1">
-        <f>G17*portfolio_PD/12</f>
-        <v>4.0707934750669912</v>
+        <f t="shared" si="3"/>
+        <v>4.2588911757249965</v>
       </c>
       <c r="I18" s="1">
-        <f>H17*portfolio_PD/12</f>
-        <v>4.4091572151700404</v>
+        <f t="shared" si="3"/>
+        <v>4.6134881770299874</v>
       </c>
       <c r="J18" s="1">
-        <f>I17*portfolio_PD/12</f>
-        <v>4.7745459631694596</v>
+        <f t="shared" si="3"/>
+        <v>4.9964025140945676</v>
       </c>
       <c r="K18" s="1">
-        <f>J17*portfolio_PD/12</f>
-        <v>5.1691270974348953</v>
+        <f t="shared" si="3"/>
+        <v>5.409905729737468</v>
       </c>
       <c r="L18" s="1">
-        <f>K17*portfolio_PD/12</f>
-        <v>5.5952361432689663</v>
+        <f t="shared" si="3"/>
+        <v>5.856445095000498</v>
       </c>
       <c r="M18" s="1">
-        <f>L17*portfolio_PD/12</f>
-        <v>6.0553954516058175</v>
+        <f t="shared" si="3"/>
+        <v>6.3386636429832812</v>
       </c>
       <c r="N18" s="1">
-        <f>M17*portfolio_PD/12</f>
-        <v>6.5523291610446348</v>
+        <f t="shared" si="3"/>
+        <v>6.8594158489209178</v>
       </c>
       <c r="O18" s="1">
-        <f>N17*portfolio_PD/12</f>
-        <v>7.0889793409128146</v>
+        <f t="shared" si="3"/>
+        <v>7.4217845456173839</v>
       </c>
       <c r="P18" s="1">
-        <f>O17*portfolio_PD/12</f>
-        <v>7.668523425725482</v>
+        <f t="shared" si="3"/>
+        <v>8.0290991920526746</v>
       </c>
       <c r="Q18" s="1">
-        <f>P17*portfolio_PD/12</f>
-        <v>8.2943930444015894</v>
+        <f t="shared" si="3"/>
+        <v>8.6849556034783255</v>
       </c>
       <c r="R18" s="1">
-        <f>Q17*portfolio_PD/12</f>
-        <v>8.9702943558173356</v>
+        <f t="shared" si="3"/>
+        <v>9.393237259920566</v>
       </c>
       <c r="S18" s="1">
-        <f>R17*portfolio_PD/12</f>
-        <v>9.7002300112038053</v>
+        <f t="shared" si="3"/>
+        <v>10.158138319363706</v>
       </c>
       <c r="T18" s="1">
-        <f>S17*portfolio_PD/12</f>
-        <v>10.488522873536477</v>
+        <f t="shared" si="3"/>
+        <v>10.984188471988221</v>
       </c>
       <c r="U18" s="1">
-        <f>T17*portfolio_PD/12</f>
-        <v>11.339841634475841</v>
+        <f t="shared" si="3"/>
+        <v>11.876279782747851</v>
       </c>
       <c r="V18" s="1">
-        <f>U17*portfolio_PD/12</f>
-        <v>12.259228480663282</v>
+        <f t="shared" si="3"/>
+        <v>12.839695681352866</v>
       </c>
       <c r="W18" s="1">
-        <f>V17*portfolio_PD/12</f>
-        <v>13.252128973320625</v>
+        <f t="shared" si="3"/>
+        <v>13.880142271452023</v>
       </c>
       <c r="X18" s="1">
-        <f>W17*portfolio_PD/12</f>
-        <v>14.324424318217652</v>
+        <f t="shared" si="3"/>
+        <v>15.003782144549</v>
       </c>
       <c r="Y18" s="1">
-        <f>X17*portfolio_PD/12</f>
-        <v>15.482466217236988</v>
+        <f t="shared" si="3"/>
+        <v>16.217270899032236</v>
       </c>
       <c r="Z18" s="1">
-        <f>Y17*portfolio_PD/12</f>
-        <v>16.733114508064226</v>
+        <f t="shared" si="3"/>
+        <v>17.52779658072706</v>
       </c>
       <c r="AA18" s="1">
-        <f>Z17*portfolio_PD/12</f>
-        <v>18.083777815053192</v>
+        <f t="shared" si="3"/>
+        <v>18.943122278692069</v>
       </c>
       <c r="AB18" s="1">
-        <f>AA17*portfolio_PD/12</f>
-        <v>19.542457452160502</v>
+        <f t="shared" si="3"/>
+        <v>20.471632128679158</v>
       </c>
       <c r="AC18" s="1">
-        <f>AB17*portfolio_PD/12</f>
-        <v>21.117794838114804</v>
+        <f t="shared" si="3"/>
+        <v>22.122380996870358</v>
       </c>
       <c r="AD18" s="1">
-        <f>AC17*portfolio_PD/12</f>
-        <v>22.819122704799621</v>
+        <f t="shared" si="3"/>
+        <v>23.905148138313635</v>
       </c>
       <c r="AE18" s="1">
-        <f>AD17*portfolio_PD/12</f>
-        <v>24.656520402306768</v>
+        <f t="shared" si="3"/>
+        <v>25.830495148033524</v>
       </c>
       <c r="AF18" s="1">
-        <f>AE17*portfolio_PD/12</f>
-        <v>26.640873628394086</v>
+        <f t="shared" si="3"/>
+        <v>27.909828548230621</v>
       </c>
       <c r="AG18" s="1">
-        <f>AF17*portfolio_PD/12</f>
-        <v>28.783938936299759</v>
+        <f t="shared" si="3"/>
+        <v>30.155467382457037</v>
       </c>
       <c r="AH18" s="1">
-        <f>AG17*portfolio_PD/12</f>
-        <v>31.09841340318177</v>
+        <f t="shared" si="3"/>
+        <v>32.580716217325893</v>
       </c>
       <c r="AI18" s="1">
-        <f>AH17*portfolio_PD/12</f>
-        <v>33.598009872032534</v>
+        <f t="shared" si="3"/>
+        <v>35.199943984357482</v>
       </c>
       <c r="AJ18" s="1">
-        <f>AI17*portfolio_PD/12</f>
-        <v>36.297538212946698</v>
+        <f t="shared" si="3"/>
+        <v>38.028669129173323</v>
       </c>
       <c r="AK18" s="1">
-        <f>AJ17*portfolio_PD/12</f>
-        <v>39.212993085290307</v>
+        <f t="shared" si="3"/>
+        <v>41.083651572625463</v>
       </c>
       <c r="AL18" s="1">
-        <f>AK17*portfolio_PD/12</f>
-        <v>42.361648720843618</v>
+        <f t="shared" si="3"/>
+        <v>44.382992028816354</v>
       </c>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.25">
@@ -5758,148 +5758,148 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <f>C18*(1-portfolio_LGD)</f>
+        <f t="shared" ref="C19:AL19" si="4">C18*(1-portfolio_LGD)</f>
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <f>D18*(1-portfolio_LGD)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <f>E18*(1-portfolio_LGD)</f>
-        <v>0.92895975098437478</v>
+        <f t="shared" si="4"/>
+        <v>0.97156532593828115</v>
       </c>
       <c r="F19" s="1">
-        <f>F18*(1-portfolio_LGD)</f>
-        <v>1.6326765141266844</v>
+        <f t="shared" si="4"/>
+        <v>1.7076996811422469</v>
       </c>
       <c r="G19" s="1">
-        <f>G18*(1-portfolio_LGD)</f>
-        <v>2.0845024068658837</v>
+        <f t="shared" si="4"/>
+        <v>2.1804688522280098</v>
       </c>
       <c r="H19" s="1">
-        <f>H18*(1-portfolio_LGD)</f>
-        <v>2.2592903786621799</v>
+        <f t="shared" si="4"/>
+        <v>2.363684602527373</v>
       </c>
       <c r="I19" s="1">
-        <f>I18*(1-portfolio_LGD)</f>
-        <v>2.4470822544193722</v>
+        <f t="shared" si="4"/>
+        <v>2.5604859382516425</v>
       </c>
       <c r="J19" s="1">
-        <f>J18*(1-portfolio_LGD)</f>
-        <v>2.6498730095590499</v>
+        <f t="shared" si="4"/>
+        <v>2.7730033953224846</v>
       </c>
       <c r="K19" s="1">
-        <f>K18*(1-portfolio_LGD)</f>
-        <v>2.8688655390763667</v>
+        <f t="shared" si="4"/>
+        <v>3.0024976800042942</v>
       </c>
       <c r="L19" s="1">
-        <f>L18*(1-portfolio_LGD)</f>
-        <v>3.1053560595142762</v>
+        <f t="shared" si="4"/>
+        <v>3.2503270277252763</v>
       </c>
       <c r="M19" s="1">
-        <f>M18*(1-portfolio_LGD)</f>
-        <v>3.3607444756412281</v>
+        <f t="shared" si="4"/>
+        <v>3.5179583218557209</v>
       </c>
       <c r="N19" s="1">
-        <f>N18*(1-portfolio_LGD)</f>
-        <v>3.6365426843797719</v>
+        <f t="shared" si="4"/>
+        <v>3.806975796151109</v>
       </c>
       <c r="O19" s="1">
-        <f>O18*(1-portfolio_LGD)</f>
-        <v>3.9343835342066118</v>
+        <f t="shared" si="4"/>
+        <v>4.1190904228176475</v>
       </c>
       <c r="P19" s="1">
-        <f>P18*(1-portfolio_LGD)</f>
-        <v>4.2560305012776416</v>
+        <f t="shared" si="4"/>
+        <v>4.4561500515892343</v>
       </c>
       <c r="Q19" s="1">
-        <f>Q18*(1-portfolio_LGD)</f>
-        <v>4.603388139642882</v>
+        <f t="shared" si="4"/>
+        <v>4.8201503599304703</v>
       </c>
       <c r="R19" s="1">
-        <f>R18*(1-portfolio_LGD)</f>
-        <v>4.9785133674786204</v>
+        <f t="shared" si="4"/>
+        <v>5.2132466792559136</v>
       </c>
       <c r="S19" s="1">
-        <f>S18*(1-portfolio_LGD)</f>
-        <v>5.3836276562181116</v>
+        <f t="shared" si="4"/>
+        <v>5.6377667672468563</v>
       </c>
       <c r="T19" s="1">
-        <f>T18*(1-portfolio_LGD)</f>
-        <v>5.8211301948127439</v>
+        <f t="shared" si="4"/>
+        <v>6.0962246019534616</v>
       </c>
       <c r="U19" s="1">
-        <f>U18*(1-portfolio_LGD)</f>
-        <v>6.2936121071340905</v>
+        <f t="shared" si="4"/>
+        <v>6.5913352794250564</v>
       </c>
       <c r="V19" s="1">
-        <f>V18*(1-portfolio_LGD)</f>
-        <v>6.8038718067681208</v>
+        <f t="shared" si="4"/>
+        <v>7.1260311031508401</v>
       </c>
       <c r="W19" s="1">
-        <f>W18*(1-portfolio_LGD)</f>
-        <v>7.3549315801929458</v>
+        <f t="shared" si="4"/>
+        <v>7.7034789606558718</v>
       </c>
       <c r="X19" s="1">
-        <f>X18*(1-portfolio_LGD)</f>
-        <v>7.9500554966107959</v>
+        <f t="shared" si="4"/>
+        <v>8.327099090224694</v>
       </c>
       <c r="Y19" s="1">
-        <f>Y18*(1-portfolio_LGD)</f>
-        <v>8.5927687505665276</v>
+        <f t="shared" si="4"/>
+        <v>9.0005853489628898</v>
       </c>
       <c r="Z19" s="1">
-        <f>Z18*(1-portfolio_LGD)</f>
-        <v>9.2868785519756436</v>
+        <f t="shared" si="4"/>
+        <v>9.7279271023035179</v>
       </c>
       <c r="AA19" s="1">
-        <f>AA18*(1-portfolio_LGD)</f>
-        <v>10.036496687354521</v>
+        <f t="shared" si="4"/>
+        <v>10.513432864674098</v>
       </c>
       <c r="AB19" s="1">
-        <f>AB18*(1-portfolio_LGD)</f>
-        <v>10.846063885949077</v>
+        <f t="shared" si="4"/>
+        <v>11.36175583141693</v>
       </c>
       <c r="AC19" s="1">
-        <f>AC18*(1-portfolio_LGD)</f>
-        <v>11.720376135153716</v>
+        <f t="shared" si="4"/>
+        <v>12.277921453263048</v>
       </c>
       <c r="AD19" s="1">
-        <f>AD18*(1-portfolio_LGD)</f>
-        <v>12.664613101163788</v>
+        <f t="shared" si="4"/>
+        <v>13.267357216764065</v>
       </c>
       <c r="AE19" s="1">
-        <f>AE18*(1-portfolio_LGD)</f>
-        <v>13.684368823280254</v>
+        <f t="shared" si="4"/>
+        <v>14.335924807158603</v>
       </c>
       <c r="AF19" s="1">
-        <f>AF18*(1-portfolio_LGD)</f>
-        <v>14.785684863758716</v>
+        <f t="shared" si="4"/>
+        <v>15.489954844267993</v>
       </c>
       <c r="AG19" s="1">
-        <f>AG18*(1-portfolio_LGD)</f>
-        <v>15.975086109646364</v>
+        <f t="shared" si="4"/>
+        <v>16.736284397263653</v>
       </c>
       <c r="AH19" s="1">
-        <f>AH18*(1-portfolio_LGD)</f>
-        <v>17.259619438765881</v>
+        <f t="shared" si="4"/>
+        <v>18.082297500615869</v>
       </c>
       <c r="AI19" s="1">
-        <f>AI18*(1-portfolio_LGD)</f>
-        <v>18.646895478978056</v>
+        <f t="shared" si="4"/>
+        <v>19.535968911318399</v>
       </c>
       <c r="AJ19" s="1">
-        <f>AJ18*(1-portfolio_LGD)</f>
-        <v>20.145133708185416</v>
+        <f t="shared" si="4"/>
+        <v>21.105911366691192</v>
       </c>
       <c r="AK19" s="1">
-        <f>AK18*(1-portfolio_LGD)</f>
-        <v>21.76321116233612</v>
+        <f t="shared" si="4"/>
+        <v>22.801426622807128</v>
       </c>
       <c r="AL19" s="1">
-        <f>AL18*(1-portfolio_LGD)</f>
-        <v>23.510715040068206</v>
+        <f t="shared" si="4"/>
+        <v>24.632560575993072</v>
       </c>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.25">
@@ -5914,144 +5914,144 @@
         <v>244.3505625</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" ref="D20:AL20" si="3">D17+D15-D16-D18+D19</f>
-        <v>429.45393940334969</v>
+        <f t="shared" ref="D20:AL20" si="5">D17+D15-D16-D18+D19</f>
+        <v>429.48977956288888</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="3"/>
-        <v>548.30075803666307</v>
+        <f t="shared" si="5"/>
+        <v>548.39214238229169</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>594.27641971780895</v>
+        <f t="shared" si="5"/>
+        <v>594.47125867977149</v>
       </c>
       <c r="G20" s="1">
-        <f t="shared" si="3"/>
-        <v>643.67258615621029</v>
+        <f t="shared" si="5"/>
+        <v>643.96717604233856</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="3"/>
-        <v>697.01400922181904</v>
+        <f t="shared" si="5"/>
+        <v>697.41572838356183</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="3"/>
-        <v>754.61709451604315</v>
+        <f t="shared" si="5"/>
+        <v>755.13398577235796</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
-        <v>816.82279463780537</v>
+        <f t="shared" si="5"/>
+        <v>817.46354705136639</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
-        <v>883.99933600084933</v>
+        <f t="shared" si="5"/>
+        <v>884.77333623123616</v>
       </c>
       <c r="L20" s="1">
-        <f t="shared" si="3"/>
-        <v>956.54440307220943</v>
+        <f t="shared" si="5"/>
+        <v>957.46179117193219</v>
       </c>
       <c r="M20" s="1">
-        <f t="shared" si="3"/>
-        <v>1034.8874950237687</v>
+        <f t="shared" si="5"/>
+        <v>1035.9592246994137</v>
       </c>
       <c r="N20" s="1">
-        <f t="shared" si="3"/>
-        <v>1119.4924709088295</v>
+        <f t="shared" si="5"/>
+        <v>1120.7303746031416</v>
       </c>
       <c r="O20" s="1">
-        <f t="shared" si="3"/>
-        <v>1210.860298452787</v>
+        <f t="shared" si="5"/>
+        <v>1212.2771576333594</v>
       </c>
       <c r="P20" s="1">
-        <f t="shared" si="3"/>
-        <v>1309.5320227470563</v>
+        <f t="shared" si="5"/>
+        <v>1311.141643818155</v>
       </c>
       <c r="Q20" s="1">
-        <f t="shared" si="3"/>
-        <v>1416.0919724385117</v>
+        <f t="shared" si="5"/>
+        <v>1417.9092687258867</v>
       </c>
       <c r="R20" s="1">
-        <f t="shared" si="3"/>
-        <v>1531.1712224140842</v>
+        <f t="shared" si="5"/>
+        <v>1533.2123027086036</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="3"/>
-        <v>1655.4513335001229</v>
+        <f t="shared" si="5"/>
+        <v>1657.7335976849388</v>
       </c>
       <c r="T20" s="1">
-        <f t="shared" si="3"/>
-        <v>1789.6683913377053</v>
+        <f t="shared" si="5"/>
+        <v>1792.2106336656323</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="3"/>
-        <v>1934.6173683679747</v>
+        <f t="shared" si="5"/>
+        <v>1937.4398890010966</v>
       </c>
       <c r="V20" s="1">
-        <f t="shared" si="3"/>
-        <v>2091.1568347762995</v>
+        <f t="shared" si="5"/>
+        <v>2094.2815602487844</v>
       </c>
       <c r="W20" s="1">
-        <f t="shared" si="3"/>
-        <v>2260.214046311969</v>
+        <f t="shared" si="5"/>
+        <v>2263.6646596299502</v>
       </c>
       <c r="X20" s="1">
-        <f t="shared" si="3"/>
-        <v>2442.7904391334637</v>
+        <f t="shared" si="5"/>
+        <v>2446.5925202829444</v>
       </c>
       <c r="Y20" s="1">
-        <f t="shared" si="3"/>
-        <v>2639.9675642413422</v>
+        <f t="shared" si="5"/>
+        <v>2644.1487419367782</v>
       </c>
       <c r="Z20" s="1">
-        <f t="shared" si="3"/>
-        <v>2852.9134966657671</v>
+        <f t="shared" si="5"/>
+        <v>2857.50361223857</v>
       </c>
       <c r="AA20" s="1">
-        <f t="shared" si="3"/>
-        <v>3082.8897573890226</v>
+        <f t="shared" si="5"/>
+        <v>3087.9210417871845</v>
       </c>
       <c r="AB20" s="1">
-        <f t="shared" si="3"/>
-        <v>3331.2587890218424</v>
+        <f t="shared" si="5"/>
+        <v>3336.7660539695662</v>
       </c>
       <c r="AC20" s="1">
-        <f t="shared" si="3"/>
-        <v>3599.4920295338347</v>
+        <f t="shared" si="5"/>
+        <v>3605.5128739839743</v>
       </c>
       <c r="AD20" s="1">
-        <f t="shared" si="3"/>
-        <v>3889.1786318823483</v>
+        <f t="shared" si="5"/>
+        <v>3895.7536649850813</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="3"/>
-        <v>4202.0348812116436</v>
+        <f t="shared" si="5"/>
+        <v>4209.2079631206752</v>
       </c>
       <c r="AF20" s="1">
-        <f t="shared" si="3"/>
-        <v>4539.914365427996</v>
+        <f t="shared" si="5"/>
+        <v>4547.7328673713</v>
       </c>
       <c r="AG20" s="1">
-        <f t="shared" si="3"/>
-        <v>4904.8189594208079</v>
+        <f t="shared" si="5"/>
+        <v>4913.3340445770591</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" si="3"/>
-        <v>5298.9106880214158</v>
+        <f t="shared" si="5"/>
+        <v>5308.1776148665795</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" si="3"/>
-        <v>5724.5245379985854</v>
+        <f t="shared" si="5"/>
+        <v>5734.6029879202688</v>
       </c>
       <c r="AJ20" s="1">
-        <f t="shared" si="3"/>
-        <v>6184.1822950136675</v>
+        <f t="shared" si="5"/>
+        <v>6195.1367261346541</v>
       </c>
       <c r="AK20" s="1">
-        <f t="shared" si="3"/>
-        <v>6680.6074875321438</v>
+        <f t="shared" si="5"/>
+        <v>6692.5075168398525</v>
       </c>
       <c r="AL20" s="1">
-        <f t="shared" si="3"/>
-        <v>7216.7415262481127</v>
+        <f t="shared" si="5"/>
+        <v>7229.6623422944467</v>
       </c>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.25">
@@ -6072,143 +6072,143 @@
       </c>
       <c r="D23" s="1">
         <f>D17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>6.4463547271406245</v>
+        <v>6.4805159539054698</v>
       </c>
       <c r="E23" s="1">
         <f>E17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>11.329674890197753</v>
+        <v>11.390664871076959</v>
       </c>
       <c r="F23" s="1">
         <f>F17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>14.465042139874063</v>
+        <v>14.544120510075933</v>
       </c>
       <c r="G23" s="1">
         <f>G17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>15.677952889820354</v>
+        <v>15.76620260905896</v>
       </c>
       <c r="H23" s="1">
         <f>H17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>16.981101971062241</v>
+        <v>17.07890301309958</v>
       </c>
       <c r="I23" s="1">
         <f>I17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>18.388333168786186</v>
+        <v>18.496432781055194</v>
       </c>
       <c r="J23" s="1">
         <f>J17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>19.907993763732868</v>
+        <v>20.027201051088195</v>
       </c>
       <c r="K23" s="1">
         <f>K17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>21.549078625303483</v>
+        <v>21.680267498473775</v>
       </c>
       <c r="L23" s="1">
         <f>L17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>23.321302149317741</v>
+        <v>23.465416499856406</v>
       </c>
       <c r="M23" s="1">
         <f>M17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>25.235155881683081</v>
+        <v>25.393215180114897</v>
       </c>
       <c r="N23" s="1">
         <f>N17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>27.301970690594139</v>
+        <v>27.475076032452723</v>
       </c>
       <c r="O23" s="1">
         <f>O17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>29.533983912320529</v>
+        <v>29.723324547870082</v>
       </c>
       <c r="P23" s="1">
         <f>P17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>31.94441186865707</v>
+        <v>32.151272254992911</v>
       </c>
       <c r="Q23" s="1">
         <f>Q17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>34.547528185770027</v>
+        <v>34.773295603088272</v>
       </c>
       <c r="R23" s="1">
         <f>R17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>37.358748378550963</v>
+        <v>37.604921155720881</v>
       </c>
       <c r="S23" s="1">
         <f>S17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>40.39472120171903</v>
+        <v>40.66291759990218</v>
       </c>
       <c r="T23" s="1">
         <f>T17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>43.673427309011288</v>
+        <v>43.965395115971369</v>
       </c>
       <c r="U23" s="1">
         <f>U17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>47.214285805108283</v>
+        <v>47.531912697066787</v>
       </c>
       <c r="V23" s="1">
         <f>V17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>51.038269321713756</v>
+        <v>51.383594054155076</v>
       </c>
       <c r="W23" s="1">
         <f>W17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>55.168028299720511</v>
+        <v>55.543252793462614</v>
       </c>
       <c r="X23" s="1">
         <f>X17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>59.628025213949734</v>
+        <v>60.035527608101525</v>
       </c>
       <c r="Y23" s="1">
         <f>Y17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>64.444679535869398</v>
+        <v>64.887028285025593</v>
       </c>
       <c r="Z23" s="1">
         <f>Z17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>69.646524293329989</v>
+        <v>70.126493392542798</v>
       </c>
       <c r="AA23" s="1">
         <f>AA17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>75.264375155079321</v>
+        <v>75.784960582828873</v>
       </c>
       <c r="AB23" s="1">
         <f>AB17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>81.331513042038281</v>
+        <v>81.895950518641627</v>
       </c>
       <c r="AC23" s="1">
         <f>AC17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>87.88388134747882</v>
+        <v>88.495665514172785</v>
       </c>
       <c r="AD23" s="1">
         <f>AD17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>94.960298934815995</v>
+        <v>95.623204067167663</v>
       </c>
       <c r="AE23" s="1">
         <f>AE17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>102.6026901752235</v>
+        <v>103.32079255361454</v>
       </c>
       <c r="AF23" s="1">
         <f>AF17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>110.85633338825841</v>
+        <v>111.63403545800915</v>
       </c>
       <c r="AG23" s="1">
         <f>AG17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>119.77012915773579</v>
+        <v>120.61218562204037</v>
       </c>
       <c r="AH23" s="1">
         <f>AH17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>129.39689011287334</v>
+        <v>130.30843611317047</v>
       </c>
       <c r="AI23" s="1">
         <f>AI17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>139.79365389192765</v>
+        <v>140.78023544270232</v>
       </c>
       <c r="AJ23" s="1">
         <f>AJ17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>151.02202114292118</v>
+        <v>152.08962800129129</v>
       </c>
       <c r="AK23" s="1">
         <f>AK17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>163.14852056442766</v>
+        <v>164.30362172929856</v>
       </c>
       <c r="AL23" s="1">
         <f>AL17*(RISK_SEGMENTS!$G$9/12)</f>
-        <v>176.24500314961989</v>
+        <v>177.49458520077252</v>
       </c>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.25">
@@ -6219,147 +6219,147 @@
         <v>0</v>
       </c>
       <c r="C24" s="1">
-        <f>C15*origination_fee</f>
+        <f t="shared" ref="C24:AL24" si="6">C15*origination_fee</f>
         <v>14.66103375</v>
       </c>
       <c r="D24" s="1">
-        <f>D15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>15.833916450000004</v>
       </c>
       <c r="E24" s="1">
-        <f>E15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>17.100629766000004</v>
       </c>
       <c r="F24" s="1">
-        <f>F15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>18.468680147280011</v>
       </c>
       <c r="G24" s="1">
-        <f>G15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>19.946174559062406</v>
       </c>
       <c r="H24" s="1">
-        <f>H15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>21.541868523787404</v>
       </c>
       <c r="I24" s="1">
-        <f>I15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>23.265218005690397</v>
       </c>
       <c r="J24" s="1">
-        <f>J15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>25.126435446145628</v>
       </c>
       <c r="K24" s="1">
-        <f>K15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>27.136550281837284</v>
       </c>
       <c r="L24" s="1">
-        <f>L15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>29.307474304384268</v>
       </c>
       <c r="M24" s="1">
-        <f>M15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>31.65207224873501</v>
       </c>
       <c r="N24" s="1">
-        <f>N15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>34.184238028633814</v>
       </c>
       <c r="O24" s="1">
-        <f>O15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>36.91897707092452</v>
       </c>
       <c r="P24" s="1">
-        <f>P15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>39.872495236598489</v>
       </c>
       <c r="Q24" s="1">
-        <f>Q15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>43.062294855526368</v>
       </c>
       <c r="R24" s="1">
-        <f>R15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>46.507278443968481</v>
       </c>
       <c r="S24" s="1">
-        <f>S15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>50.227860719485953</v>
       </c>
       <c r="T24" s="1">
-        <f>T15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>54.246089577044835</v>
       </c>
       <c r="U24" s="1">
-        <f>U15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>58.585776743208427</v>
       </c>
       <c r="V24" s="1">
-        <f>V15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>63.272638882665106</v>
       </c>
       <c r="W24" s="1">
-        <f>W15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>68.334449993278326</v>
       </c>
       <c r="X24" s="1">
-        <f>X15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>73.801205992740591</v>
       </c>
       <c r="Y24" s="1">
-        <f>Y15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>79.705302472159858</v>
       </c>
       <c r="Z24" s="1">
-        <f>Z15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>86.08172666993265</v>
       </c>
       <c r="AA24" s="1">
-        <f>AA15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>92.968264803527248</v>
       </c>
       <c r="AB24" s="1">
-        <f>AB15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>100.40572598780948</v>
       </c>
       <c r="AC24" s="1">
-        <f>AC15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>108.43818406683422</v>
       </c>
       <c r="AD24" s="1">
-        <f>AD15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>117.11323879218097</v>
       </c>
       <c r="AE24" s="1">
-        <f>AE15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>126.48229789555546</v>
       </c>
       <c r="AF24" s="1">
-        <f>AF15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>136.60088172719992</v>
       </c>
       <c r="AG24" s="1">
-        <f>AG15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>147.52895226537586</v>
       </c>
       <c r="AH24" s="1">
-        <f>AH15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>159.33126844660597</v>
       </c>
       <c r="AI24" s="1">
-        <f>AI15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>172.07776992233443</v>
       </c>
       <c r="AJ24" s="1">
-        <f>AJ15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>185.84399151612124</v>
       </c>
       <c r="AK24" s="1">
-        <f>AK15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>200.71151083741091</v>
       </c>
       <c r="AL24" s="1">
-        <f>AL15*origination_fee</f>
+        <f t="shared" si="6"/>
         <v>216.76843170440384</v>
       </c>
     </row>
@@ -6375,144 +6375,144 @@
         <v>14.66103375</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" ref="D25:AL25" si="4">D23+D24</f>
-        <v>22.280271177140627</v>
+        <f t="shared" ref="D25:AL25" si="7">D23+D24</f>
+        <v>22.314432403905474</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="4"/>
-        <v>28.430304656197755</v>
+        <f t="shared" si="7"/>
+        <v>28.491294637076962</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="4"/>
-        <v>32.933722287154076</v>
+        <f t="shared" si="7"/>
+        <v>33.012800657355946</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="4"/>
-        <v>35.62412744888276</v>
+        <f t="shared" si="7"/>
+        <v>35.712377168121364</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
-        <v>38.522970494849645</v>
+        <f t="shared" si="7"/>
+        <v>38.620771536886984</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="4"/>
-        <v>41.653551174476583</v>
+        <f t="shared" si="7"/>
+        <v>41.761650786745591</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="4"/>
-        <v>45.034429209878496</v>
+        <f t="shared" si="7"/>
+        <v>45.153636497233819</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
-        <v>48.685628907140767</v>
+        <f t="shared" si="7"/>
+        <v>48.816817780311055</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="4"/>
-        <v>52.62877645370201</v>
+        <f t="shared" si="7"/>
+        <v>52.772890804240674</v>
       </c>
       <c r="M25" s="1">
-        <f t="shared" si="4"/>
-        <v>56.887228130418094</v>
+        <f t="shared" si="7"/>
+        <v>57.045287428849903</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" si="4"/>
-        <v>61.486208719227953</v>
+        <f t="shared" si="7"/>
+        <v>61.659314061086533</v>
       </c>
       <c r="O25" s="1">
-        <f t="shared" si="4"/>
-        <v>66.452960983245049</v>
+        <f t="shared" si="7"/>
+        <v>66.642301618794605</v>
       </c>
       <c r="P25" s="1">
-        <f t="shared" si="4"/>
-        <v>71.816907105255552</v>
+        <f t="shared" si="7"/>
+        <v>72.0237674915914</v>
       </c>
       <c r="Q25" s="1">
-        <f t="shared" si="4"/>
-        <v>77.609823041296394</v>
+        <f t="shared" si="7"/>
+        <v>77.835590458614632</v>
       </c>
       <c r="R25" s="1">
-        <f t="shared" si="4"/>
-        <v>83.866026822519444</v>
+        <f t="shared" si="7"/>
+        <v>84.112199599689362</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="4"/>
-        <v>90.622581921204983</v>
+        <f t="shared" si="7"/>
+        <v>90.890778319388133</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="4"/>
-        <v>97.91951688605613</v>
+        <f t="shared" si="7"/>
+        <v>98.211484693016203</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="4"/>
-        <v>105.8000625483167</v>
+        <f t="shared" si="7"/>
+        <v>106.11768944027521</v>
       </c>
       <c r="V25" s="1">
-        <f t="shared" si="4"/>
-        <v>114.31090820437886</v>
+        <f t="shared" si="7"/>
+        <v>114.65623293682017</v>
       </c>
       <c r="W25" s="1">
-        <f t="shared" si="4"/>
-        <v>123.50247829299883</v>
+        <f t="shared" si="7"/>
+        <v>123.87770278674094</v>
       </c>
       <c r="X25" s="1">
-        <f t="shared" si="4"/>
-        <v>133.42923120669033</v>
+        <f t="shared" si="7"/>
+        <v>133.83673360084211</v>
       </c>
       <c r="Y25" s="1">
-        <f t="shared" si="4"/>
-        <v>144.14998200802927</v>
+        <f t="shared" si="7"/>
+        <v>144.59233075718544</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" si="4"/>
-        <v>155.72825096326264</v>
+        <f t="shared" si="7"/>
+        <v>156.20822006247545</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="4"/>
-        <v>168.23263995860657</v>
+        <f t="shared" si="7"/>
+        <v>168.75322538635612</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="4"/>
-        <v>181.73723902984776</v>
+        <f t="shared" si="7"/>
+        <v>182.30167650645109</v>
       </c>
       <c r="AC25" s="1">
-        <f t="shared" si="4"/>
-        <v>196.32206541431304</v>
+        <f t="shared" si="7"/>
+        <v>196.933849581007</v>
       </c>
       <c r="AD25" s="1">
-        <f t="shared" si="4"/>
-        <v>212.07353772699696</v>
+        <f t="shared" si="7"/>
+        <v>212.73644285934864</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="4"/>
-        <v>229.08498807077896</v>
+        <f t="shared" si="7"/>
+        <v>229.80309044916999</v>
       </c>
       <c r="AF25" s="1">
-        <f t="shared" si="4"/>
-        <v>247.45721511545833</v>
+        <f t="shared" si="7"/>
+        <v>248.23491718520907</v>
       </c>
       <c r="AG25" s="1">
-        <f t="shared" si="4"/>
-        <v>267.29908142311166</v>
+        <f t="shared" si="7"/>
+        <v>268.14113788741622</v>
       </c>
       <c r="AH25" s="1">
-        <f t="shared" si="4"/>
-        <v>288.72815855947931</v>
+        <f t="shared" si="7"/>
+        <v>289.63970455977642</v>
       </c>
       <c r="AI25" s="1">
-        <f t="shared" si="4"/>
-        <v>311.87142381426207</v>
+        <f t="shared" si="7"/>
+        <v>312.85800536503677</v>
       </c>
       <c r="AJ25" s="1">
-        <f t="shared" si="4"/>
-        <v>336.86601265904244</v>
+        <f t="shared" si="7"/>
+        <v>337.93361951741252</v>
       </c>
       <c r="AK25" s="1">
-        <f t="shared" si="4"/>
-        <v>363.86003140183857</v>
+        <f t="shared" si="7"/>
+        <v>365.01513256670944</v>
       </c>
       <c r="AL25" s="1">
-        <f t="shared" si="4"/>
-        <v>393.01343485402373</v>
+        <f t="shared" si="7"/>
+        <v>394.26301690517636</v>
       </c>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.25">
@@ -6523,148 +6523,148 @@
         <v>0</v>
       </c>
       <c r="C26" s="1">
-        <f>-C17*(cost_of_debt/12)</f>
+        <f t="shared" ref="C26:AL26" si="8">-C17*(cost_of_debt/12)</f>
         <v>0</v>
       </c>
       <c r="D26" s="1">
-        <f>-D17*(cost_of_debt/12)</f>
+        <f t="shared" si="8"/>
         <v>-2.8507565625</v>
       </c>
       <c r="E26" s="1">
-        <f>-E17*(cost_of_debt/12)</f>
-        <v>-5.010295959705747</v>
+        <f t="shared" si="8"/>
+        <v>-5.0107140949003703</v>
       </c>
       <c r="F26" s="1">
-        <f>-F17*(cost_of_debt/12)</f>
-        <v>-6.3968421770944026</v>
+        <f t="shared" si="8"/>
+        <v>-6.3979083277934032</v>
       </c>
       <c r="G26" s="1">
-        <f>-G17*(cost_of_debt/12)</f>
-        <v>-6.9332248967077712</v>
+        <f t="shared" si="8"/>
+        <v>-6.9354980179306676</v>
       </c>
       <c r="H26" s="1">
-        <f>-H17*(cost_of_debt/12)</f>
-        <v>-7.5095135051557866</v>
+        <f t="shared" si="8"/>
+        <v>-7.5129503871606174</v>
       </c>
       <c r="I26" s="1">
-        <f>-I17*(cost_of_debt/12)</f>
-        <v>-8.1318301075878896</v>
+        <f t="shared" si="8"/>
+        <v>-8.1365168311415559</v>
       </c>
       <c r="J26" s="1">
-        <f>-J17*(cost_of_debt/12)</f>
-        <v>-8.8038661026871701</v>
+        <f t="shared" si="8"/>
+        <v>-8.8098965006775103</v>
       </c>
       <c r="K26" s="1">
-        <f>-K17*(cost_of_debt/12)</f>
-        <v>-9.5295992707743959</v>
+        <f t="shared" si="8"/>
+        <v>-9.5370747155992746</v>
       </c>
       <c r="L26" s="1">
-        <f>-L17*(cost_of_debt/12)</f>
-        <v>-10.313325586676577</v>
+        <f t="shared" si="8"/>
+        <v>-10.322355589364422</v>
       </c>
       <c r="M26" s="1">
-        <f>-M17*(cost_of_debt/12)</f>
-        <v>-11.159684702509111</v>
+        <f t="shared" si="8"/>
+        <v>-11.170387563672543</v>
       </c>
       <c r="N26" s="1">
-        <f>-N17*(cost_of_debt/12)</f>
-        <v>-12.073687441943969</v>
+        <f t="shared" si="8"/>
+        <v>-12.086190954826494</v>
       </c>
       <c r="O26" s="1">
-        <f>-O17*(cost_of_debt/12)</f>
-        <v>-13.060745493936345</v>
+        <f t="shared" si="8"/>
+        <v>-13.075187703703319</v>
       </c>
       <c r="P26" s="1">
-        <f>-P17*(cost_of_debt/12)</f>
-        <v>-14.126703481949182</v>
+        <f t="shared" si="8"/>
+        <v>-14.143233505722527</v>
       </c>
       <c r="Q26" s="1">
-        <f>-Q17*(cost_of_debt/12)</f>
-        <v>-15.277873598715658</v>
+        <f t="shared" si="8"/>
+        <v>-15.296652511211809</v>
       </c>
       <c r="R26" s="1">
-        <f>-R17*(cost_of_debt/12)</f>
-        <v>-16.521073011782637</v>
+        <f t="shared" si="8"/>
+        <v>-16.542274801802012</v>
       </c>
       <c r="S26" s="1">
-        <f>-S17*(cost_of_debt/12)</f>
-        <v>-17.86366426149765</v>
+        <f t="shared" si="8"/>
+        <v>-17.88747686493371</v>
       </c>
       <c r="T26" s="1">
-        <f>-T17*(cost_of_debt/12)</f>
-        <v>-19.313598890834768</v>
+        <f t="shared" si="8"/>
+        <v>-19.340225306324285</v>
       </c>
       <c r="U26" s="1">
-        <f>-U17*(cost_of_debt/12)</f>
-        <v>-20.879464565606565</v>
+        <f t="shared" si="8"/>
+        <v>-20.909124059432376</v>
       </c>
       <c r="V26" s="1">
-        <f>-V17*(cost_of_debt/12)</f>
-        <v>-22.57053596429304</v>
+        <f t="shared" si="8"/>
+        <v>-22.603465371679462</v>
       </c>
       <c r="W26" s="1">
-        <f>-W17*(cost_of_debt/12)</f>
-        <v>-24.39682973905683</v>
+        <f t="shared" si="8"/>
+        <v>-24.433284869569153</v>
       </c>
       <c r="X26" s="1">
-        <f>-X17*(cost_of_debt/12)</f>
-        <v>-26.369163873639639</v>
+        <f t="shared" si="8"/>
+        <v>-26.409421029016087</v>
       </c>
       <c r="Y26" s="1">
-        <f>-Y17*(cost_of_debt/12)</f>
-        <v>-28.499221789890409</v>
+        <f t="shared" si="8"/>
+        <v>-28.54357940330102</v>
       </c>
       <c r="Z26" s="1">
-        <f>-Z17*(cost_of_debt/12)</f>
-        <v>-30.799621582815661</v>
+        <f t="shared" si="8"/>
+        <v>-30.848401989262413</v>
       </c>
       <c r="AA26" s="1">
-        <f>-AA17*(cost_of_debt/12)</f>
-        <v>-33.283990794433947</v>
+        <f t="shared" si="8"/>
+        <v>-33.33754214278332</v>
       </c>
       <c r="AB26" s="1">
-        <f>-AB17*(cost_of_debt/12)</f>
-        <v>-35.967047169538596</v>
+        <f t="shared" si="8"/>
+        <v>-36.025745487517156</v>
       </c>
       <c r="AC26" s="1">
-        <f>-AC17*(cost_of_debt/12)</f>
-        <v>-38.864685871921495</v>
+        <f t="shared" si="8"/>
+        <v>-38.928937296311609</v>
       </c>
       <c r="AD26" s="1">
-        <f>-AD17*(cost_of_debt/12)</f>
-        <v>-41.99407367789474</v>
+        <f t="shared" si="8"/>
+        <v>-42.064316863146367</v>
       </c>
       <c r="AE26" s="1">
-        <f>-AE17*(cost_of_debt/12)</f>
-        <v>-45.373750705294064</v>
+        <f t="shared" si="8"/>
+        <v>-45.450459424825951</v>
       </c>
       <c r="AF26" s="1">
-        <f>-AF17*(cost_of_debt/12)</f>
-        <v>-49.023740280802514</v>
+        <f t="shared" si="8"/>
+        <v>-49.107426236407882</v>
       </c>
       <c r="AG26" s="1">
-        <f>-AG17*(cost_of_debt/12)</f>
-        <v>-52.965667596659955</v>
+        <f t="shared" si="8"/>
+        <v>-53.056883452665168</v>
       </c>
       <c r="AH26" s="1">
-        <f>-AH17*(cost_of_debt/12)</f>
-        <v>-57.222887859909427</v>
+        <f t="shared" si="8"/>
+        <v>-57.322230520065695</v>
       </c>
       <c r="AI26" s="1">
-        <f>-AI17*(cost_of_debt/12)</f>
-        <v>-61.820624693583184</v>
+        <f t="shared" si="8"/>
+        <v>-61.9287388401101</v>
       </c>
       <c r="AJ26" s="1">
-        <f>-AJ17*(cost_of_debt/12)</f>
-        <v>-66.786119609983501</v>
+        <f t="shared" si="8"/>
+        <v>-66.903701525736466</v>
       </c>
       <c r="AK26" s="1">
-        <f>-AK17*(cost_of_debt/12)</f>
-        <v>-72.148793441826129</v>
+        <f t="shared" si="8"/>
+        <v>-72.276595138237639</v>
       </c>
       <c r="AL26" s="1">
-        <f>-AL17*(cost_of_debt/12)</f>
-        <v>-77.940420687875019</v>
+        <f t="shared" si="8"/>
+        <v>-78.079254363131611</v>
       </c>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.25">
@@ -6675,147 +6675,147 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <f>-C15*CAC_blended/1000000</f>
+        <f t="shared" ref="C27:AL27" si="9">-C15*CAC_blended/1000000</f>
         <v>-0.15589565887499998</v>
       </c>
       <c r="D27" s="1">
-        <f>-D15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.16836731158500004</v>
       </c>
       <c r="E27" s="1">
-        <f>-E15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.18183669651180004</v>
       </c>
       <c r="F27" s="1">
-        <f>-F15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.1963836322327441</v>
       </c>
       <c r="G27" s="1">
-        <f>-G15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.21209432281136359</v>
       </c>
       <c r="H27" s="1">
-        <f>-H15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.22906186863627273</v>
       </c>
       <c r="I27" s="1">
-        <f>-I15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.24738681812717456</v>
       </c>
       <c r="J27" s="1">
-        <f>-J15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.26717776357734851</v>
       </c>
       <c r="K27" s="1">
-        <f>-K15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.28855198466353649</v>
       </c>
       <c r="L27" s="1">
-        <f>-L15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.31163614343661944</v>
       </c>
       <c r="M27" s="1">
-        <f>-M15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.33656703491154893</v>
       </c>
       <c r="N27" s="1">
-        <f>-N15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.36349239770447295</v>
       </c>
       <c r="O27" s="1">
-        <f>-O15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.39257178952083072</v>
       </c>
       <c r="P27" s="1">
-        <f>-P15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.42397753268249727</v>
       </c>
       <c r="Q27" s="1">
-        <f>-Q15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.4578957352970971</v>
       </c>
       <c r="R27" s="1">
-        <f>-R15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.49452739412086488</v>
       </c>
       <c r="S27" s="1">
-        <f>-S15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.53408958565053399</v>
       </c>
       <c r="T27" s="1">
-        <f>-T15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.57681675250257669</v>
       </c>
       <c r="U27" s="1">
-        <f>-U15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.62296209270278291</v>
       </c>
       <c r="V27" s="1">
-        <f>-V15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.67279906011900559</v>
       </c>
       <c r="W27" s="1">
-        <f>-W15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.72662298492852617</v>
       </c>
       <c r="X27" s="1">
-        <f>-X15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.7847528237228083</v>
       </c>
       <c r="Y27" s="1">
-        <f>-Y15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.84753304962063314</v>
       </c>
       <c r="Z27" s="1">
-        <f>-Z15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.91533569359028388</v>
       </c>
       <c r="AA27" s="1">
-        <f>-AA15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-0.9885625490775064</v>
       </c>
       <c r="AB27" s="1">
-        <f>-AB15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.0676475530037075</v>
       </c>
       <c r="AC27" s="1">
-        <f>-AC15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.153059357244004</v>
       </c>
       <c r="AD27" s="1">
-        <f>-AD15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.2453041058235244</v>
       </c>
       <c r="AE27" s="1">
-        <f>-AE15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.3449284342894066</v>
       </c>
       <c r="AF27" s="1">
-        <f>-AF15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.452522709032559</v>
       </c>
       <c r="AG27" s="1">
-        <f>-AG15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.5687245257551632</v>
       </c>
       <c r="AH27" s="1">
-        <f>-AH15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.6942224878155772</v>
       </c>
       <c r="AI27" s="1">
-        <f>-AI15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.8297602868408229</v>
       </c>
       <c r="AJ27" s="1">
-        <f>-AJ15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-1.9761411097880892</v>
       </c>
       <c r="AK27" s="1">
-        <f>-AK15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-2.134232398571136</v>
       </c>
       <c r="AL27" s="1">
-        <f>-AL15*CAC_blended/1000000</f>
+        <f t="shared" si="9"/>
         <v>-2.3049709904568276</v>
       </c>
     </row>
@@ -6831,144 +6831,144 @@
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" ref="D28:AL28" si="5">-D17*0.005</f>
+        <f t="shared" ref="D28:AL28" si="10">-D17*0.005</f>
         <v>-1.2217528124999999</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.1472696970167484</v>
+        <f t="shared" si="10"/>
+        <v>-2.1474488978144444</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.7415037901833155</v>
+        <f t="shared" si="10"/>
+        <v>-2.7419607119114584</v>
       </c>
       <c r="G28" s="1">
-        <f t="shared" si="5"/>
-        <v>-2.9713820985890447</v>
+        <f t="shared" si="10"/>
+        <v>-2.9723562933988577</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.2183629307810513</v>
+        <f t="shared" si="10"/>
+        <v>-3.2198358802116931</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.4850700461090951</v>
+        <f t="shared" si="10"/>
+        <v>-3.487078641917809</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="5"/>
-        <v>-3.7730854725802159</v>
+        <f t="shared" si="10"/>
+        <v>-3.7756699288617899</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.0841139731890266</v>
+        <f t="shared" si="10"/>
+        <v>-4.087317735256832</v>
       </c>
       <c r="L28" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.4199966800042469</v>
+        <f t="shared" si="10"/>
+        <v>-4.4238666811561806</v>
       </c>
       <c r="M28" s="1">
-        <f t="shared" si="5"/>
-        <v>-4.7827220153610472</v>
+        <f t="shared" si="10"/>
+        <v>-4.7873089558596611</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.1744374751188431</v>
+        <f t="shared" si="10"/>
+        <v>-5.1797961234970682</v>
       </c>
       <c r="O28" s="1">
-        <f t="shared" si="5"/>
-        <v>-5.597462354544148</v>
+        <f t="shared" si="10"/>
+        <v>-5.6036518730157079</v>
       </c>
       <c r="P28" s="1">
-        <f t="shared" si="5"/>
-        <v>-6.0543014922639351</v>
+        <f t="shared" si="10"/>
+        <v>-6.0613857881667972</v>
       </c>
       <c r="Q28" s="1">
-        <f t="shared" si="5"/>
-        <v>-6.5476601137352821</v>
+        <f t="shared" si="10"/>
+        <v>-6.5557082190907749</v>
       </c>
       <c r="R28" s="1">
-        <f t="shared" si="5"/>
-        <v>-7.0804598621925585</v>
+        <f t="shared" si="10"/>
+        <v>-7.0895463436294337</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="5"/>
-        <v>-7.6558561120704214</v>
+        <f t="shared" si="10"/>
+        <v>-7.6660615135430179</v>
       </c>
       <c r="T28" s="1">
-        <f t="shared" si="5"/>
-        <v>-8.2772566675006143</v>
+        <f t="shared" si="10"/>
+        <v>-8.2886679884246934</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="5"/>
-        <v>-8.9483419566885267</v>
+        <f t="shared" si="10"/>
+        <v>-8.9610531683281618</v>
       </c>
       <c r="V28" s="1">
-        <f t="shared" si="5"/>
-        <v>-9.6730868418398739</v>
+        <f t="shared" si="10"/>
+        <v>-9.6871994450054828</v>
       </c>
       <c r="W28" s="1">
-        <f t="shared" si="5"/>
-        <v>-10.455784173881497</v>
+        <f t="shared" si="10"/>
+        <v>-10.471407801243922</v>
       </c>
       <c r="X28" s="1">
-        <f t="shared" si="5"/>
-        <v>-11.301070231559846</v>
+        <f t="shared" si="10"/>
+        <v>-11.318323298149751</v>
       </c>
       <c r="Y28" s="1">
-        <f t="shared" si="5"/>
-        <v>-12.213952195667318</v>
+        <f t="shared" si="10"/>
+        <v>-12.232962601414723</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" si="5"/>
-        <v>-13.199837821206712</v>
+        <f t="shared" si="10"/>
+        <v>-13.220743709683891</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="5"/>
-        <v>-14.264567483328836</v>
+        <f t="shared" si="10"/>
+        <v>-14.28751806119285</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="5"/>
-        <v>-15.414448786945114</v>
+        <f t="shared" si="10"/>
+        <v>-15.439605208935923</v>
       </c>
       <c r="AC28" s="1">
-        <f t="shared" si="5"/>
-        <v>-16.656293945109212</v>
+        <f t="shared" si="10"/>
+        <v>-16.683830269847832</v>
       </c>
       <c r="AD28" s="1">
-        <f t="shared" si="5"/>
-        <v>-17.997460147669173</v>
+        <f t="shared" si="10"/>
+        <v>-18.027564369919872</v>
       </c>
       <c r="AE28" s="1">
-        <f t="shared" si="5"/>
-        <v>-19.445893159411742</v>
+        <f t="shared" si="10"/>
+        <v>-19.478768324925408</v>
       </c>
       <c r="AF28" s="1">
-        <f t="shared" si="5"/>
-        <v>-21.010174406058219</v>
+        <f t="shared" si="10"/>
+        <v>-21.046039815603375</v>
       </c>
       <c r="AG28" s="1">
-        <f t="shared" si="5"/>
-        <v>-22.69957182713998</v>
+        <f t="shared" si="10"/>
+        <v>-22.738664336856502</v>
       </c>
       <c r="AH28" s="1">
-        <f t="shared" si="5"/>
-        <v>-24.524094797104041</v>
+        <f t="shared" si="10"/>
+        <v>-24.566670222885296</v>
       </c>
       <c r="AI28" s="1">
-        <f t="shared" si="5"/>
-        <v>-26.494553440107079</v>
+        <f t="shared" si="10"/>
+        <v>-26.540888074332898</v>
       </c>
       <c r="AJ28" s="1">
-        <f t="shared" si="5"/>
-        <v>-28.622622689992927</v>
+        <f t="shared" si="10"/>
+        <v>-28.673014939601345</v>
       </c>
       <c r="AK28" s="1">
-        <f t="shared" si="5"/>
-        <v>-30.920911475068337</v>
+        <f t="shared" si="10"/>
+        <v>-30.97568363067327</v>
       </c>
       <c r="AL28" s="1">
-        <f t="shared" si="5"/>
-        <v>-33.403037437660721</v>
+        <f t="shared" si="10"/>
+        <v>-33.462537584199261</v>
       </c>
     </row>
     <row r="29" spans="1:38" x14ac:dyDescent="0.25">
@@ -6983,144 +6983,144 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" ref="D29:AL29" si="6">-(D18-D19)</f>
+        <f t="shared" ref="D29:AL29" si="11">-(D18-D19)</f>
         <v>0</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="6"/>
-        <v>-0.744841602140625</v>
+        <f t="shared" si="11"/>
+        <v>-0.77900282890546879</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.3090829707862608</v>
+        <f t="shared" si="11"/>
+        <v>-1.3692366812762162</v>
       </c>
       <c r="G29" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.6713577856852582</v>
+        <f t="shared" si="11"/>
+        <v>-1.7483038544891252</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.8115030964048113</v>
+        <f t="shared" si="11"/>
+        <v>-1.8952065731976235</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="6"/>
-        <v>-1.9620749607506682</v>
+        <f t="shared" si="11"/>
+        <v>-2.0530022387783449</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.1246729536104096</v>
+        <f t="shared" si="11"/>
+        <v>-2.223399118772083</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.3002615583585286</v>
+        <f t="shared" si="11"/>
+        <v>-2.4074080497331738</v>
       </c>
       <c r="L29" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.4898800837546902</v>
+        <f t="shared" si="11"/>
+        <v>-2.6061180672752218</v>
       </c>
       <c r="M29" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.6946509759645894</v>
+        <f t="shared" si="11"/>
+        <v>-2.8207053211275603</v>
       </c>
       <c r="N29" s="1">
-        <f t="shared" si="6"/>
-        <v>-2.9157864766648629</v>
+        <f t="shared" si="11"/>
+        <v>-3.0524400527698088</v>
       </c>
       <c r="O29" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.1545958067062028</v>
+        <f t="shared" si="11"/>
+        <v>-3.3026941227997364</v>
       </c>
       <c r="P29" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.4124929244478404</v>
+        <f t="shared" si="11"/>
+        <v>-3.5729491404634404</v>
       </c>
       <c r="Q29" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.6910049047587075</v>
+        <f t="shared" si="11"/>
+        <v>-3.8648052435478553</v>
       </c>
       <c r="R29" s="1">
-        <f t="shared" si="6"/>
-        <v>-3.9917809883387152</v>
+        <f t="shared" si="11"/>
+        <v>-4.1799905806646525</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.3166023549856938</v>
+        <f t="shared" si="11"/>
+        <v>-4.5203715521168499</v>
       </c>
       <c r="T29" s="1">
-        <f t="shared" si="6"/>
-        <v>-4.6673926787237328</v>
+        <f t="shared" si="11"/>
+        <v>-4.887963870034759</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.0462295273417501</v>
+        <f t="shared" si="11"/>
+        <v>-5.2849445033227944</v>
       </c>
       <c r="V29" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.4553566738951611</v>
+        <f t="shared" si="11"/>
+        <v>-5.7136645782020263</v>
       </c>
       <c r="W29" s="1">
-        <f t="shared" si="6"/>
-        <v>-5.8971973931276791</v>
+        <f t="shared" si="11"/>
+        <v>-6.1766633107961511</v>
       </c>
       <c r="X29" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.3743688216068559</v>
+        <f t="shared" si="11"/>
+        <v>-6.6766830543243056</v>
       </c>
       <c r="Y29" s="1">
-        <f t="shared" si="6"/>
-        <v>-6.8896974666704605</v>
+        <f t="shared" si="11"/>
+        <v>-7.2166855500693465</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" si="6"/>
-        <v>-7.4462359560885822</v>
+        <f t="shared" si="11"/>
+        <v>-7.7998694784235418</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="6"/>
-        <v>-8.0472811276986711</v>
+        <f t="shared" si="11"/>
+        <v>-8.4296894140179717</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="6"/>
-        <v>-8.6963935662114249</v>
+        <f t="shared" si="11"/>
+        <v>-9.1098762972622271</v>
       </c>
       <c r="AC29" s="1">
-        <f t="shared" si="6"/>
-        <v>-9.3974187029610885</v>
+        <f t="shared" si="11"/>
+        <v>-9.8444595436073108</v>
       </c>
       <c r="AD29" s="1">
-        <f t="shared" si="6"/>
-        <v>-10.154509603635834</v>
+        <f t="shared" si="11"/>
+        <v>-10.63779092154957</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="6"/>
-        <v>-10.972151579026514</v>
+        <f t="shared" si="11"/>
+        <v>-11.494570340874921</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="6"/>
-        <v>-11.85518876463537</v>
+        <f t="shared" si="11"/>
+        <v>-12.419873703962628</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="6"/>
-        <v>-12.808852826653395</v>
+        <f t="shared" si="11"/>
+        <v>-13.419182985193384</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="6"/>
-        <v>-13.838793964415888</v>
+        <f t="shared" si="11"/>
+        <v>-14.498418716710024</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="6"/>
-        <v>-14.951114393054478</v>
+        <f t="shared" si="11"/>
+        <v>-15.663975073039083</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="6"/>
-        <v>-16.152404504761282</v>
+        <f t="shared" si="11"/>
+        <v>-16.922757762482131</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="6"/>
-        <v>-17.449781922954188</v>
+        <f t="shared" si="11"/>
+        <v>-18.282224949818335</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" si="6"/>
-        <v>-18.850933680775412</v>
+        <f t="shared" si="11"/>
+        <v>-19.750431452823282</v>
       </c>
     </row>
     <row r="30" spans="1:38" x14ac:dyDescent="0.25">
@@ -7135,144 +7135,144 @@
         <v>14.505138091125</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" ref="D30:AL30" si="7">D25+D26+D27+D28+D29</f>
-        <v>18.039394490555626</v>
+        <f t="shared" ref="D30:AL30" si="12">D25+D26+D27+D28+D29</f>
+        <v>18.073555717320474</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="7"/>
-        <v>20.346060700822832</v>
+        <f t="shared" si="12"/>
+        <v>20.372292118944873</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="7"/>
-        <v>22.289909716857352</v>
+        <f t="shared" si="12"/>
+        <v>22.307311304142122</v>
       </c>
       <c r="G30" s="1">
-        <f t="shared" si="7"/>
-        <v>23.836068345089323</v>
+        <f t="shared" si="12"/>
+        <v>23.844124679491348</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="7"/>
-        <v>25.754529093871724</v>
+        <f t="shared" si="12"/>
+        <v>25.763716827680778</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="7"/>
-        <v>27.827189241901756</v>
+        <f t="shared" si="12"/>
+        <v>27.837666256780707</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="7"/>
-        <v>30.065626917423355</v>
+        <f t="shared" si="12"/>
+        <v>30.077493185345087</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="7"/>
-        <v>32.48310212015528</v>
+        <f t="shared" si="12"/>
+        <v>32.496465295058243</v>
       </c>
       <c r="L30" s="1">
-        <f t="shared" si="7"/>
-        <v>35.093937959829873</v>
+        <f t="shared" si="12"/>
+        <v>35.108914323008236</v>
       </c>
       <c r="M30" s="1">
-        <f t="shared" si="7"/>
-        <v>37.9136034016718</v>
+        <f t="shared" si="12"/>
+        <v>37.930318553278596</v>
       </c>
       <c r="N30" s="1">
-        <f t="shared" si="7"/>
-        <v>40.958804927795804</v>
+        <f t="shared" si="12"/>
+        <v>40.977394532288685</v>
       </c>
       <c r="O30" s="1">
-        <f t="shared" si="7"/>
-        <v>44.247585538537521</v>
+        <f t="shared" si="12"/>
+        <v>44.268196129755012</v>
       </c>
       <c r="P30" s="1">
-        <f t="shared" si="7"/>
-        <v>47.799431673912103</v>
+        <f t="shared" si="12"/>
+        <v>47.822221524556134</v>
       </c>
       <c r="Q30" s="1">
-        <f t="shared" si="7"/>
-        <v>51.635388688789646</v>
+        <f t="shared" si="12"/>
+        <v>51.66052874946709</v>
       </c>
       <c r="R30" s="1">
-        <f t="shared" si="7"/>
-        <v>55.778185566084673</v>
+        <f t="shared" si="12"/>
+        <v>55.8058604794724</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="7"/>
-        <v>60.252369607000688</v>
+        <f t="shared" si="12"/>
+        <v>60.282778803144033</v>
       </c>
       <c r="T30" s="1">
-        <f t="shared" si="7"/>
-        <v>65.084451896494443</v>
+        <f t="shared" si="12"/>
+        <v>65.117810775729893</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="7"/>
-        <v>70.303064405977082</v>
+        <f t="shared" si="12"/>
+        <v>70.339605616489109</v>
       </c>
       <c r="V30" s="1">
-        <f t="shared" si="7"/>
-        <v>75.939129664231771</v>
+        <f t="shared" si="12"/>
+        <v>75.97910448181419</v>
       </c>
       <c r="W30" s="1">
-        <f t="shared" si="7"/>
-        <v>82.026044002004298</v>
+        <f t="shared" si="12"/>
+        <v>82.069723820203194</v>
       </c>
       <c r="X30" s="1">
-        <f t="shared" si="7"/>
-        <v>88.599875456161186</v>
+        <f t="shared" si="12"/>
+        <v>88.64755339562916</v>
       </c>
       <c r="Y30" s="1">
-        <f t="shared" si="7"/>
-        <v>95.699577506180447</v>
+        <f t="shared" si="12"/>
+        <v>95.751570152779706</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" si="7"/>
-        <v>103.3672199095614</v>
+        <f t="shared" si="12"/>
+        <v>103.42386919151532</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="7"/>
-        <v>111.64823800406762</v>
+        <f t="shared" si="12"/>
+        <v>111.70991321928447</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="7"/>
-        <v>120.59170195414892</v>
+        <f t="shared" si="12"/>
+        <v>120.65880195973209</v>
       </c>
       <c r="AC30" s="1">
-        <f t="shared" si="7"/>
-        <v>130.25060753707726</v>
+        <f t="shared" si="12"/>
+        <v>130.32356311399624</v>
       </c>
       <c r="AD30" s="1">
-        <f t="shared" si="7"/>
-        <v>140.68219019197372</v>
+        <f t="shared" si="12"/>
+        <v>140.76146659890932</v>
       </c>
       <c r="AE30" s="1">
-        <f t="shared" si="7"/>
-        <v>151.94826419275722</v>
+        <f t="shared" si="12"/>
+        <v>152.03436392425428</v>
       </c>
       <c r="AF30" s="1">
-        <f t="shared" si="7"/>
-        <v>164.11558895492968</v>
+        <f t="shared" si="12"/>
+        <v>164.20905472020263</v>
       </c>
       <c r="AG30" s="1">
-        <f t="shared" si="7"/>
-        <v>177.25626464690316</v>
+        <f t="shared" si="12"/>
+        <v>177.35768258694603</v>
       </c>
       <c r="AH30" s="1">
-        <f t="shared" si="7"/>
-        <v>191.44815945023439</v>
+        <f t="shared" si="12"/>
+        <v>191.55816261229981</v>
       </c>
       <c r="AI30" s="1">
-        <f t="shared" si="7"/>
-        <v>206.77537100067656</v>
+        <f t="shared" si="12"/>
+        <v>206.89464309071388</v>
       </c>
       <c r="AJ30" s="1">
-        <f t="shared" si="7"/>
-        <v>223.32872474451659</v>
+        <f t="shared" si="12"/>
+        <v>223.45800417980448</v>
       </c>
       <c r="AK30" s="1">
-        <f t="shared" si="7"/>
-        <v>241.20631216341877</v>
+        <f t="shared" si="12"/>
+        <v>241.34639644940904</v>
       </c>
       <c r="AL30" s="1">
-        <f t="shared" si="7"/>
-        <v>260.51407205725576</v>
+        <f t="shared" si="12"/>
+        <v>260.66582251456538</v>
       </c>
     </row>
     <row r="32" spans="1:38" x14ac:dyDescent="0.25">
@@ -7292,144 +7292,144 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" ref="D33:AL33" si="8">IFERROR(D18/D20,0)</f>
+        <f t="shared" ref="D33:AL33" si="13">IFERROR(D18/D20,0)</f>
         <v>0</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="8"/>
-        <v>3.0527066187515249E-3</v>
+        <f t="shared" si="13"/>
+        <v>3.1921831469704114E-3</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" si="8"/>
-        <v>4.9501534762389429E-3</v>
+        <f t="shared" si="13"/>
+        <v>5.1759211526085577E-3</v>
       </c>
       <c r="G33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8350476209960067E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1008896926430176E-3</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8403323623463848E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1066749750483245E-3</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8429066174252985E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.109496147642288E-3</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8452653311255633E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1120798989959266E-3</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8474332354361957E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.114453847333827E-3</v>
       </c>
       <c r="L33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8494264618540476E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1166358271406481E-3</v>
       </c>
       <c r="M33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8512596593572139E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1186420197401701E-3</v>
       </c>
       <c r="N33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8529461620454712E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1204871433504998E-3</v>
       </c>
       <c r="O33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8544981200316587E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1221846001836694E-3</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8559266154018302E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1237466065613326E-3</v>
       </c>
       <c r="Q33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.857241765249638E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1251843083602268E-3</v>
       </c>
       <c r="R33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8584528134446893E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1265078836937881E-3</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8595682125517981E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1277266344542747E-3</v>
       </c>
       <c r="T33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8605956971149982E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1288490681042961E-3</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8615423493494356E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1298829709091063E-3</v>
       </c>
       <c r="V33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8624146581405055E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1308354736349822E-3</v>
       </c>
       <c r="W33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8632185721278728E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1317131105987502E-3</v>
       </c>
       <c r="X33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8639595475488216E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1325218728347283E-3</v>
       </c>
       <c r="Y33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8646425914275369E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1332672560445514E-3</v>
       </c>
       <c r="Z33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.865272300621947E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1339543039092689E-3</v>
       </c>
       <c r="AA33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8658528971755391E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1345876472697729E-3</v>
       </c>
       <c r="AB33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8663882603665124E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1351715396184845E-3</v>
       </c>
       <c r="AC33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8668819557991187E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1357098892912418E-3</v>
       </c>
       <c r="AD33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8673372618411332E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1362062887015669E-3</v>
       </c>
       <c r="AE33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8677571936759211E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1366640409192298E-3</v>
       </c>
       <c r="AF33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8681445252068195E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1370861838600426E-3</v>
       </c>
       <c r="AG33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8685018090247204E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1374755123234908E-3</v>
       </c>
       <c r="AH33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8688313946264579E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1378345980882942E-3</v>
       </c>
       <c r="AI33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8691354450511463E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1381658082529647E-3</v>
       </c>
       <c r="AJ33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8694159520836821E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1384713219881813E-3</v>
       </c>
       <c r="AK33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8696747501589593E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1387531458500068E-3</v>
       </c>
       <c r="AL33" s="1">
-        <f t="shared" si="8"/>
-        <v>5.8699135290864258E-3</v>
+        <f t="shared" si="13"/>
+        <v>6.1390131277874746E-3</v>
       </c>
     </row>
     <row r="34" spans="1:38" x14ac:dyDescent="0.25">
@@ -7438,151 +7438,151 @@
       </c>
       <c r="B34" s="1">
         <f>RISK_SEGMENTS!G9</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
       <c r="C34" s="1">
         <f>$B$34</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:AL34" si="9">$B$34</f>
-        <v>0.316579</v>
+        <f t="shared" ref="D34:AL34" si="14">$B$34</f>
+        <v>0.31825665000000003</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="G34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="L34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="M34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="N34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="O34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="Q34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="R34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="T34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="V34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="W34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="X34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="Y34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="Z34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AA34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AB34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AC34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AD34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AE34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AF34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AG34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AH34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AI34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AJ34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AK34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
       <c r="AL34" s="1">
-        <f t="shared" si="9"/>
-        <v>0.316579</v>
+        <f t="shared" si="14"/>
+        <v>0.31825665000000003</v>
       </c>
     </row>
     <row r="35" spans="1:38" x14ac:dyDescent="0.25">
@@ -7597,144 +7597,144 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" ref="D35:AL35" si="10">IFERROR((D18-D19)/D20,0)</f>
+        <f t="shared" ref="D35:AL35" si="15">IFERROR((D18-D19)/D20,0)</f>
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="10"/>
-        <v>1.3584544453444289E-3</v>
+        <f t="shared" si="15"/>
+        <v>1.4205215004018334E-3</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.2028182969263299E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.3032849129108086E-3</v>
       </c>
       <c r="G35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.596596191343223E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7148959132261429E-3</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.5989479012441417E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7174703638965046E-3</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6000934447542581E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.718725785700819E-3</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6011430723508759E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7198755550531879E-3</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6021077897691075E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7209319620635536E-3</v>
       </c>
       <c r="L35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6029947755250517E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7219029430775887E-3</v>
       </c>
       <c r="M35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6038105484139608E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7227956987843759E-3</v>
       </c>
       <c r="N35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.604561042110235E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7236167787909726E-3</v>
       </c>
       <c r="O35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6052516634140883E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7243721470817336E-3</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6058873438538151E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7250672399197935E-3</v>
       </c>
       <c r="Q35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6064725855360891E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7257070172203011E-3</v>
       </c>
       <c r="R35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6070115019828873E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.726296008243736E-3</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6075078545855501E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7268383523321527E-3</v>
       </c>
       <c r="T35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6079650852161747E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7273378353064124E-3</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6083863454604995E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7277979220545526E-3</v>
       </c>
       <c r="V35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6087745228725251E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7282217857675676E-3</v>
       </c>
       <c r="W35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.609132264596904E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7286123342164441E-3</v>
       </c>
       <c r="X35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6094619986592256E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7289722334114543E-3</v>
       </c>
       <c r="Y35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6097659531852543E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7293039289398259E-3</v>
       </c>
       <c r="Z35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6100461737767668E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7296096652396247E-3</v>
       </c>
       <c r="AA35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6103045392431149E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7298915030350489E-3</v>
       </c>
       <c r="AB35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6105427758630986E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7301513351302262E-3</v>
       </c>
       <c r="AC35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6107624703306082E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7303909007346029E-3</v>
       </c>
       <c r="AD35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6109650815193046E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7306117984721981E-3</v>
       </c>
       <c r="AE35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6111519511857854E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7308154982090579E-3</v>
       </c>
       <c r="AF35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6113243137170349E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7310033518177191E-3</v>
       </c>
       <c r="AG35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6114833050160011E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7311766029839541E-3</v>
       </c>
       <c r="AH35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6116299706087738E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7313363961492913E-3</v>
       </c>
       <c r="AI35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.61176527304776E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7314837846725698E-3</v>
       </c>
       <c r="AJ35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6118900986772391E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7316197382847413E-3</v>
       </c>
       <c r="AK35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6120052638207371E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7317451499032537E-3</v>
       </c>
       <c r="AL35" s="1">
-        <f t="shared" si="10"/>
-        <v>2.6121115204434599E-3</v>
+        <f t="shared" si="15"/>
+        <v>2.7318608418654268E-3</v>
       </c>
     </row>
     <row r="36" spans="1:38" x14ac:dyDescent="0.25">
@@ -7749,144 +7749,144 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:AL36" si="11">IFERROR(D29/D20*12,0)</f>
+        <f t="shared" ref="D36:AL36" si="16">IFERROR(D29/D20*12,0)</f>
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="11"/>
-        <v>-1.6301453344133146E-2</v>
+        <f t="shared" si="16"/>
+        <v>-1.7046258004821999E-2</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="11"/>
-        <v>-2.6433819563115961E-2</v>
+        <f t="shared" si="16"/>
+        <v>-2.7639418954929704E-2</v>
       </c>
       <c r="G36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1159154296118676E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2578750958713716E-2</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.11873748149297E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2609644366758055E-2</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1201121337051097E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.262470942840983E-2</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1213716868210513E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2638506660638257E-2</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1225293477229292E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2651183544762645E-2</v>
       </c>
       <c r="L36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1235937306300622E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2662835316931066E-2</v>
       </c>
       <c r="M36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1245726580967529E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2673548385412511E-2</v>
       </c>
       <c r="N36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1254732505322819E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2683401345491671E-2</v>
       </c>
       <c r="O36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1263019960969057E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2692465764980805E-2</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1270648126245783E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2700806879037522E-2</v>
       </c>
       <c r="Q36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1277671026433071E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2708484206643615E-2</v>
       </c>
       <c r="R36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.128413802379465E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2715552098924836E-2</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1290094255026601E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2722060227985836E-2</v>
       </c>
       <c r="T36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1295581022594096E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2728054023676949E-2</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1300636145525994E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.273357506465463E-2</v>
       </c>
       <c r="V36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1305294274470305E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2738661429210808E-2</v>
       </c>
       <c r="W36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1309587175162849E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2743348010597327E-2</v>
       </c>
       <c r="X36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1313543983910709E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.274766680093745E-2</v>
       </c>
       <c r="Y36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1317191438223049E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2751647147277907E-2</v>
       </c>
       <c r="Z36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1320554085321202E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2755315982875496E-2</v>
       </c>
       <c r="AA36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1323654470917381E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2758698036420585E-2</v>
       </c>
       <c r="AB36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1326513310357185E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2761816021562716E-2</v>
       </c>
       <c r="AC36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1329149643967297E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2764690808815236E-2</v>
       </c>
       <c r="AD36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1331580978231653E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2767341581666373E-2</v>
       </c>
       <c r="AE36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1333823414229425E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2769785978508693E-2</v>
       </c>
       <c r="AF36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1335891764604419E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2772040221812626E-2</v>
       </c>
       <c r="AG36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1337799660192012E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2774119235807447E-2</v>
       </c>
       <c r="AH36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1339559647305282E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2776036753791496E-2</v>
       </c>
       <c r="AI36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.134118327657312E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2777805416070838E-2</v>
       </c>
       <c r="AJ36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1342681184126871E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2779436859416894E-2</v>
       </c>
       <c r="AK36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.1344063165848847E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.2780941798839044E-2</v>
       </c>
       <c r="AL36" s="1">
-        <f t="shared" si="11"/>
-        <v>-3.134533824532152E-2</v>
+        <f t="shared" si="16"/>
+        <v>-3.278233010238512E-2</v>
       </c>
     </row>
     <row r="37" spans="1:38" x14ac:dyDescent="0.25">
@@ -7901,144 +7901,144 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" ref="D37:AL37" si="12">IFERROR(D30/D17,0)</f>
-        <v>7.3825876666666679E-2</v>
+        <f t="shared" ref="D37:AL37" si="17">IFERROR(D30/D17,0)</f>
+        <v>7.3965680833333353E-2</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="12"/>
-        <v>4.7376584154962195E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.7433706431102209E-2</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0652706366251089E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.0677663992842894E-2</v>
       </c>
       <c r="G37" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0109396156771351E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.0109802335011872E-2</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="12"/>
-        <v>4.0011847090877135E-2</v>
+        <f t="shared" si="17"/>
+        <v>4.0007810624787039E-2</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9923428903487046E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9915455192416682E-2</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.984222877525094E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9830670784313266E-2</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9767624426493751E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9752800491562816E-2</v>
       </c>
       <c r="L37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9699054660597796E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9681252683944464E-2</v>
       </c>
       <c r="M37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9636009870427001E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9615490563703774E-2</v>
       </c>
       <c r="N37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9578026717633774E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.955502644824499E-2</v>
       </c>
       <c r="O37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.952468345107879E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9499416749038042E-2</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9475595768553362E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9448257540310325E-2</v>
       </c>
       <c r="Q37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9430413149021036E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.940118063752996E-2</v>
       </c>
       <c r="R37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.938881559368957E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9357850118025367E-2</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9350510723422064E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9317959226290625E-2</v>
       </c>
       <c r="T37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9315231187670316E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9281227615021098E-2</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.928273234653732E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9247398880020358E-2</v>
       </c>
       <c r="V37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9252790192974084E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9216238353070879E-2</v>
       </c>
       <c r="W37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9225199486665474E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9187531121867847E-2</v>
       </c>
       <c r="X37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9199772075008188E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9161080250340929E-2</v>
       </c>
       <c r="Y37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9176335379848694E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9136705176269479E-2</v>
       </c>
       <c r="Z37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9154731031427061E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9114240266135601E-2</v>
       </c>
       <c r="AA37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9134813633344374E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9093533509751491E-2</v>
       </c>
       <c r="AB37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9116449644401516E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.907444533941154E-2</v>
       </c>
       <c r="AC37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9099516364900236E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9056847560217024E-2</v>
       </c>
       <c r="AD37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9083901016497953E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9040622379853687E-2</v>
       </c>
       <c r="AE37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9069499906003238E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9025661527507409E-2</v>
       </c>
       <c r="AF37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9056217664620495E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.9011865452820073E-2</v>
       </c>
       <c r="AG37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9043966555125209E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.8999142596839259E-2</v>
       </c>
       <c r="AH37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9032665840298783E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.8987408727832421E-2</v>
       </c>
       <c r="AI37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.902224120668947E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.897658633563153E-2</v>
       </c>
       <c r="AJ37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9012624238413521E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.8966604078871821E-2</v>
       </c>
       <c r="AK37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.9003751936275304E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.895739628009677E-2</v>
       </c>
       <c r="AL37" s="1">
-        <f t="shared" si="12"/>
-        <v>3.8995566277983978E-2</v>
+        <f t="shared" si="17"/>
+        <v>3.8948902464236553E-2</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -8052,7 +8052,7 @@
       </c>
       <c r="B40" s="1">
         <f>MAX(C20:AL20)</f>
-        <v>7216.7415262481127</v>
+        <v>7229.6623422944467</v>
       </c>
       <c r="C40" s="1" t="str">
         <f>IF(B40&gt;0,"PASS — portfolio growing","WARNING — portfolio not growing")</f>
@@ -8074,7 +8074,7 @@
       </c>
       <c r="B42" s="1">
         <f>SUM(C25:AL25)</f>
-        <v>4940.5828104200818</v>
+        <v>4955.6411580463173</v>
       </c>
     </row>
     <row r="43" spans="1:38" x14ac:dyDescent="0.25">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="B43" s="1">
         <f>SUM(C30:AL30)</f>
-        <v>3289.6111838199945</v>
+        <v>3291.4410889751366</v>
       </c>
       <c r="C43" s="1" t="str">
         <f>IF(B43&gt;0,"PASS — profitable","WARNING — loss-making")</f>
@@ -8156,19 +8156,19 @@
       </c>
       <c r="B7" s="1">
         <f>SUM(PORTFOLIO!C23:N23)</f>
-        <v>200.60396089751254</v>
+        <v>201.79801600025812</v>
       </c>
       <c r="C7" s="1">
         <f>SUM(PORTFOLIO!O23:Z23)</f>
-        <v>564.5926333257205</v>
+        <v>568.38893510790012</v>
       </c>
       <c r="D7" s="1">
         <f>SUM(PORTFOLIO!AA23:AL23)</f>
-        <v>1432.2753100623997</v>
+        <v>1442.34330080371</v>
       </c>
       <c r="E7" s="1">
         <f>SUM(B7:D7)</f>
-        <v>2197.4719042856327</v>
+        <v>2212.5302519118682</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -8198,19 +8198,19 @@
       </c>
       <c r="B9" s="1">
         <f>B7+B8</f>
-        <v>478.82825240906874</v>
+        <v>480.02230751181435</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:E9" si="0">C7+C8</f>
-        <v>1265.2087299832542</v>
+        <v>1269.0050317654336</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>3196.5458280277589</v>
+        <v>3206.6138187690694</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="0"/>
-        <v>4940.5828104200818</v>
+        <v>4955.6411580463173</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -8224,19 +8224,19 @@
       </c>
       <c r="B12" s="1">
         <f>SUM(PORTFOLIO!C26:N26)</f>
-        <v>-88.712626313342838</v>
+        <v>-88.770249545566855</v>
       </c>
       <c r="C12" s="1">
         <f>SUM(PORTFOLIO!O26:Z26)</f>
-        <v>-249.6784962540184</v>
+        <v>-250.03232741595815</v>
       </c>
       <c r="D12" s="1">
         <f>SUM(PORTFOLIO!AA26:AL26)</f>
-        <v>-633.39180238972244</v>
+        <v>-634.481831290939</v>
       </c>
       <c r="E12" s="1">
         <f>SUM(B12:D12)</f>
-        <v>-971.78292495708365</v>
+        <v>-973.284408252464</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -8266,19 +8266,19 @@
       </c>
       <c r="B14" s="1">
         <f>SUM(PORTFOLIO!C28:N28)</f>
-        <v>-38.019696991432632</v>
+        <v>-38.044392662385796</v>
       </c>
       <c r="C14" s="1">
         <f>SUM(PORTFOLIO!O28:Z28)</f>
-        <v>-107.00506982315075</v>
+        <v>-107.15671174969636</v>
       </c>
       <c r="D14" s="1">
         <f>SUM(PORTFOLIO!AA28:AL28)</f>
-        <v>-271.45362959559537</v>
+        <v>-271.92078483897387</v>
       </c>
       <c r="E14" s="1">
         <f>SUM(B14:D14)</f>
-        <v>-416.47839641017879</v>
+        <v>-417.12188925105602</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8287,19 +8287,19 @@
       </c>
       <c r="B15" s="1">
         <f>SUM(PORTFOLIO!C29:N29)</f>
-        <v>-20.024112464120705</v>
+        <v>-20.954822786324627</v>
       </c>
       <c r="C15" s="1">
         <f>SUM(PORTFOLIO!O29:Z29)</f>
-        <v>-60.342955496691388</v>
+        <v>-63.19728498476546</v>
       </c>
       <c r="D15" s="1">
         <f>SUM(PORTFOLIO!AA29:AL29)</f>
-        <v>-153.17482463678357</v>
+        <v>-160.47325116134087</v>
       </c>
       <c r="E15" s="1">
         <f>SUM(B15:D15)</f>
-        <v>-233.54189259759568</v>
+        <v>-244.62535893243097</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8308,19 +8308,19 @@
       </c>
       <c r="B16" s="1">
         <f>B12+B13+B14+B15</f>
-        <v>-149.71488740196907</v>
+        <v>-150.72791662735017</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" ref="C16:E16" si="1">C12+C13+C14+C15</f>
-        <v>-424.47640606831897</v>
+        <v>-427.83620864487841</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>-1076.7803331297996</v>
+        <v>-1085.635943798952</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>-1650.9716266000878</v>
+        <v>-1664.2000690711807</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8329,19 +8329,19 @@
       </c>
       <c r="B18" s="1">
         <f>B9+B16</f>
-        <v>329.11336500709967</v>
+        <v>329.29439088446418</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" ref="C18:E18" si="2">C9+C16</f>
-        <v>840.73232391493525</v>
+        <v>841.1688231205552</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>2119.7654948979593</v>
+        <v>2120.9778749701172</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>3289.611183819994</v>
+        <v>3291.4410889751366</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -8350,19 +8350,19 @@
       </c>
       <c r="B19" s="1">
         <f>IF(B18&gt;0,-B18*tax_rate,0)</f>
-        <v>-98.734009502129894</v>
+        <v>-98.788317265339245</v>
       </c>
       <c r="C19" s="1">
         <f>IF(C18&gt;0,-C18*tax_rate,0)</f>
-        <v>-252.21969717448056</v>
+        <v>-252.35064693616656</v>
       </c>
       <c r="D19" s="1">
         <f>IF(D18&gt;0,-D18*tax_rate,0)</f>
-        <v>-635.92964846938776</v>
+        <v>-636.29336249103517</v>
       </c>
       <c r="E19" s="1">
         <f>IF(E18&gt;0,-E18*tax_rate,0)</f>
-        <v>-986.88335514599817</v>
+        <v>-987.43232669254098</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8371,19 +8371,19 @@
       </c>
       <c r="B20" s="1">
         <f>B18+B19</f>
-        <v>230.37935550496979</v>
+        <v>230.50607361912495</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" ref="C20:E20" si="3">C18+C19</f>
-        <v>588.51262674045472</v>
+        <v>588.81817618438868</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="3"/>
-        <v>1483.8358464285716</v>
+        <v>1484.6845124790821</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="3"/>
-        <v>2302.7278286739956</v>
+        <v>2304.0087622825959</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -8397,19 +8397,19 @@
       </c>
       <c r="B23" s="1">
         <f>IFERROR(B20/B9,0)</f>
-        <v>0.48113150037803937</v>
+        <v>0.48019866996171157</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" ref="C23:E23" si="4">IFERROR(C20/C9,0)</f>
-        <v>0.4651506212324697</v>
+        <v>0.46399987505583623</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="4"/>
-        <v>0.46419977258517375</v>
+        <v>0.46300695886385579</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="4"/>
-        <v>0.46608424897106465</v>
+        <v>0.46492647243871765</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -8418,19 +8418,19 @@
       </c>
       <c r="B24" s="1">
         <f>IFERROR(ABS(B16)/B9,0)</f>
-        <v>0.31266928517422954</v>
+        <v>0.31400190005469786</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" ref="C24:E24" si="5">IFERROR(ABS(C16)/C9,0)</f>
-        <v>0.33549911252504333</v>
+        <v>0.33714303563451969</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="5"/>
-        <v>0.3368574677354661</v>
+        <v>0.33856148733734881</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="5"/>
-        <v>0.33416535861276475</v>
+        <v>0.33581932508754631</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -8439,15 +8439,15 @@
       </c>
       <c r="B25" s="7">
         <f>IFERROR(B20/AVERAGE(PORTFOLIO!C20:N20),0)</f>
-        <v>0.31691108585624089</v>
+        <v>0.3168610315619097</v>
       </c>
       <c r="C25" s="7">
         <f>IFERROR(C20/AVERAGE(PORTFOLIO!O20:Z20),0)</f>
-        <v>0.30526578772379581</v>
+        <v>0.30498026857230182</v>
       </c>
       <c r="D25" s="7">
         <f>IFERROR(D20/AVERAGE(PORTFOLIO!AA20:AL20),0)</f>
-        <v>0.30357455574064723</v>
+        <v>0.30322211217883965</v>
       </c>
     </row>
   </sheetData>
@@ -8499,7 +8499,7 @@
       </c>
       <c r="B6" s="1">
         <f>PORTFOLIO!B40</f>
-        <v>7216.7415262481127</v>
+        <v>7229.6623422944467</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>263</v>
@@ -8511,7 +8511,7 @@
       </c>
       <c r="B7" s="1">
         <f>B6*equity_ratio</f>
-        <v>2165.0224578744337</v>
+        <v>2168.8987026883337</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>264</v>
@@ -8523,7 +8523,7 @@
       </c>
       <c r="B8" s="1">
         <f>B6*(1-equity_ratio)</f>
-        <v>5051.719068373679</v>
+        <v>5060.7636396061125</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>265</v>
@@ -8535,7 +8535,7 @@
       </c>
       <c r="B9" s="1">
         <f>B7+B8</f>
-        <v>7216.7415262481127</v>
+        <v>7229.6623422944467</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>266</v>
@@ -8583,19 +8583,19 @@
       </c>
       <c r="B14" s="9">
         <f>INCOME_STATEMENT!B$9</f>
-        <v>478.82825240906874</v>
+        <v>480.02230751181435</v>
       </c>
       <c r="C14" s="9">
         <f>INCOME_STATEMENT!C$9</f>
-        <v>1265.2087299832542</v>
+        <v>1269.0050317654336</v>
       </c>
       <c r="D14" s="9">
         <f>INCOME_STATEMENT!D$9</f>
-        <v>3196.5458280277589</v>
+        <v>3206.6138187690694</v>
       </c>
       <c r="E14" s="9">
         <f>INCOME_STATEMENT!E$9</f>
-        <v>4940.5828104200818</v>
+        <v>4955.6411580463173</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -8604,19 +8604,19 @@
       </c>
       <c r="B15" s="9">
         <f>INCOME_STATEMENT!B$16</f>
-        <v>-149.71488740196907</v>
+        <v>-150.72791662735017</v>
       </c>
       <c r="C15" s="9">
         <f>INCOME_STATEMENT!C$16</f>
-        <v>-424.47640606831897</v>
+        <v>-427.83620864487841</v>
       </c>
       <c r="D15" s="9">
         <f>INCOME_STATEMENT!D$16</f>
-        <v>-1076.7803331297996</v>
+        <v>-1085.635943798952</v>
       </c>
       <c r="E15" s="9">
         <f>INCOME_STATEMENT!E$16</f>
-        <v>-1650.9716266000878</v>
+        <v>-1664.2000690711807</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -8625,19 +8625,19 @@
       </c>
       <c r="B16" s="9">
         <f>INCOME_STATEMENT!B$18</f>
-        <v>329.11336500709967</v>
+        <v>329.29439088446418</v>
       </c>
       <c r="C16" s="9">
         <f>INCOME_STATEMENT!C$18</f>
-        <v>840.73232391493525</v>
+        <v>841.1688231205552</v>
       </c>
       <c r="D16" s="9">
         <f>INCOME_STATEMENT!D$18</f>
-        <v>2119.7654948979593</v>
+        <v>2120.9778749701172</v>
       </c>
       <c r="E16" s="9">
         <f>INCOME_STATEMENT!E$18</f>
-        <v>3289.611183819994</v>
+        <v>3291.4410889751366</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -8646,19 +8646,19 @@
       </c>
       <c r="B17" s="9">
         <f>INCOME_STATEMENT!B$20</f>
-        <v>230.37935550496979</v>
+        <v>230.50607361912495</v>
       </c>
       <c r="C17" s="9">
         <f>INCOME_STATEMENT!C$20</f>
-        <v>588.51262674045472</v>
+        <v>588.81817618438868</v>
       </c>
       <c r="D17" s="9">
         <f>INCOME_STATEMENT!D$20</f>
-        <v>1483.8358464285716</v>
+        <v>1484.6845124790821</v>
       </c>
       <c r="E17" s="9">
         <f>INCOME_STATEMENT!E$20</f>
-        <v>2302.7278286739956</v>
+        <v>2304.0087622825959</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -8667,19 +8667,19 @@
       </c>
       <c r="B18" s="10">
         <f>INCOME_STATEMENT!B$23</f>
-        <v>0.48113150037803937</v>
+        <v>0.48019866996171157</v>
       </c>
       <c r="C18" s="10">
         <f>INCOME_STATEMENT!C$23</f>
-        <v>0.4651506212324697</v>
+        <v>0.46399987505583623</v>
       </c>
       <c r="D18" s="10">
         <f>INCOME_STATEMENT!D$23</f>
-        <v>0.46419977258517375</v>
+        <v>0.46300695886385579</v>
       </c>
       <c r="E18" s="10">
         <f>IFERROR(E17/E14,0)</f>
-        <v>0.46608424897106465</v>
+        <v>0.46492647243871765</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="B21" s="1">
         <f>INCOME_STATEMENT!D18</f>
-        <v>2119.7654948979593</v>
+        <v>2120.9778749701172</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>279</v>
@@ -8717,7 +8717,7 @@
       </c>
       <c r="B23" s="1">
         <f>B21*B22</f>
-        <v>16958.123959183675</v>
+        <v>16967.822999760938</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>281</v>
@@ -8729,7 +8729,7 @@
       </c>
       <c r="B24" s="1">
         <f>-B8*(1-SUM(PORTFOLIO!C16:AL16)/SUM(PORTFOLIO!C15:AL15))</f>
-        <v>-823.22749825981077</v>
+        <v>-827.35852959647309</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>282</v>
@@ -8741,7 +8741,7 @@
       </c>
       <c r="B25" s="1">
         <f>B23+B24</f>
-        <v>16134.896460923865</v>
+        <v>16140.464470164465</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>283</v>
@@ -8763,7 +8763,7 @@
       </c>
       <c r="B30" s="1">
         <f>-B7</f>
-        <v>-2165.0224578744337</v>
+        <v>-2168.8987026883337</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>289</v>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="B31" s="1">
         <f>IF(B17&gt;0,B17*0.5,0)</f>
-        <v>115.1896777524849</v>
+        <v>115.25303680956247</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>290</v>
@@ -8787,7 +8787,7 @@
       </c>
       <c r="B32" s="1">
         <f>IF(C17&gt;0,C17*0.5,0)</f>
-        <v>294.25631337022736</v>
+        <v>294.40908809219434</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>291</v>
@@ -8799,7 +8799,7 @@
       </c>
       <c r="B33" s="1">
         <f>IF(D17&gt;0,D17*0.5,0)+B25</f>
-        <v>16876.81438413815</v>
+        <v>16882.806726404007</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>292</v>
@@ -8816,7 +8816,7 @@
       </c>
       <c r="B36" s="1">
         <f>IFERROR(IRR(B30:B33),"Check cashflows — may need more years")</f>
-        <v>1.023731230348937</v>
+        <v>1.0227431475234487</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>300</v>
@@ -8828,7 +8828,7 @@
       </c>
       <c r="B37" s="1">
         <f>IFERROR(B36*(1-tax_rate),"Check B36")</f>
-        <v>0.7166118612442558</v>
+        <v>0.71592020326641403</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>301</v>
@@ -8840,7 +8840,7 @@
       </c>
       <c r="B38" s="1">
         <f>IFERROR((B31+B32+B33)/(-B30),"Check cashflows")</f>
-        <v>7.9843330550169407</v>
+        <v>7.9729259968996598</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>302</v>
@@ -8852,7 +8852,7 @@
       </c>
       <c r="B39" s="1">
         <f>IFERROR((B31+B32)/(-B30),"Check")</f>
-        <v>0.18911858841625889</v>
+        <v>0.18888024802356312</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>303</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="B40" s="1">
         <f>IFERROR((B31+B32+B25)/(-B30),"Check")</f>
-        <v>7.6416493472725495</v>
+        <v>7.6306590872835427</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>304</v>
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C45" s="12">
         <f>B36</f>
-        <v>1.023731230348937</v>
+        <v>1.0227431475234487</v>
       </c>
       <c r="D45" s="11" t="str">
         <f>IF(B36&gt;target_IRR,"✓ PASS","✗ FAIL")</f>
@@ -8926,7 +8926,7 @@
       </c>
       <c r="C46" s="12">
         <f t="shared" ref="C46:C48" si="0">B37</f>
-        <v>0.7166118612442558</v>
+        <v>0.71592020326641403</v>
       </c>
       <c r="D46" s="11" t="str">
         <f>IF(B37&gt;0.15,"✓ PASS","✗ FAIL")</f>
@@ -8942,7 +8942,7 @@
       </c>
       <c r="C47" s="12">
         <f t="shared" si="0"/>
-        <v>7.9843330550169407</v>
+        <v>7.9729259968996598</v>
       </c>
       <c r="D47" s="11" t="str">
         <f>IF(B38&gt;2.5,"✓ PASS","✗ FAIL")</f>
@@ -8958,7 +8958,7 @@
       </c>
       <c r="C48" s="11">
         <f t="shared" si="0"/>
-        <v>0.18911858841625889</v>
+        <v>0.18888024802356312</v>
       </c>
       <c r="D48" s="11" t="str">
         <f>IF(B39&gt;0.5,"✓ PASS","✗ FAIL")</f>
@@ -8974,7 +8974,7 @@
       </c>
       <c r="C49" s="12">
         <f>MAX(PORTFOLIO!C33:AL33)</f>
-        <v>5.8699135290864258E-3</v>
+        <v>6.1390131277874746E-3</v>
       </c>
       <c r="D49" s="11" t="str">
         <f>IF(C49&lt;0.15,"✓ PASS","✗ FAIL")</f>
@@ -8990,7 +8990,7 @@
       </c>
       <c r="C50" s="11">
         <f>B16</f>
-        <v>329.11336500709967</v>
+        <v>329.29439088446418</v>
       </c>
       <c r="D50" s="11" t="str">
         <f>IF(B16&gt;0,"✓ PASS","✗ FAIL")</f>
@@ -9033,7 +9033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B452DE91-1F5B-44CA-A6C5-16616196E666}">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -9238,19 +9238,19 @@
       </c>
       <c r="B17" s="12">
         <f>PD_nearprime</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="C17" s="12">
         <f>PD_nearprime*(1+unemp_elasticity*C7+inflation_elasticity*C8+rate_elasticity*C9)</f>
-        <v>0.13527999999999998</v>
+        <v>0.13705999999999999</v>
       </c>
       <c r="D17" s="12">
         <f>PD_nearprime*(1+unemp_elasticity*D7+inflation_elasticity*D8+rate_elasticity*D9)</f>
-        <v>0.21736</v>
+        <v>0.22022</v>
       </c>
       <c r="E17" s="12">
         <f>PD_nearprime</f>
-        <v>7.5999999999999998E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9259,19 +9259,19 @@
       </c>
       <c r="B18" s="12">
         <f>PD_subprime</f>
-        <v>0.184</v>
+        <v>0.2006</v>
       </c>
       <c r="C18" s="12">
         <f>PD_subprime*(1+unemp_elasticity*C7+inflation_elasticity*C8+rate_elasticity*C9)</f>
-        <v>0.32751999999999998</v>
+        <v>0.35706799999999994</v>
       </c>
       <c r="D18" s="12">
         <f>PD_subprime*(1+unemp_elasticity*D7+inflation_elasticity*D8+rate_elasticity*D9)</f>
-        <v>0.52623999999999993</v>
+        <v>0.573716</v>
       </c>
       <c r="E18" s="12">
         <f>PD_subprime</f>
-        <v>0.184</v>
+        <v>0.2006</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9280,19 +9280,19 @@
       </c>
       <c r="B19" s="12">
         <f>SUMPRODUCT(B16:B18,ASSUMPTIONS!B40:B42)</f>
-        <v>8.2199999999999995E-2</v>
+        <v>8.5970000000000005E-2</v>
       </c>
       <c r="C19" s="12">
         <f>SUMPRODUCT(C16:C18,ASSUMPTIONS!B40:B42)</f>
-        <v>0.146316</v>
+        <v>0.15302659999999998</v>
       </c>
       <c r="D19" s="12">
         <f>SUMPRODUCT(D16:D18,ASSUMPTIONS!B40:B42)</f>
-        <v>0.23509199999999997</v>
+        <v>0.24587419999999999</v>
       </c>
       <c r="E19" s="12">
         <f>SUMPRODUCT(E16:E18,ASSUMPTIONS!B40:B42)</f>
-        <v>8.2199999999999995E-2</v>
+        <v>8.5970000000000005E-2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -9305,11 +9305,11 @@
       </c>
       <c r="C20" s="12">
         <f>C19-B19</f>
-        <v>6.4116000000000006E-2</v>
+        <v>6.705659999999998E-2</v>
       </c>
       <c r="D20" s="12">
         <f>D19-B19</f>
-        <v>0.15289199999999997</v>
+        <v>0.1599042</v>
       </c>
       <c r="E20" s="12">
         <f>E19-B19</f>
@@ -9358,19 +9358,19 @@
       </c>
       <c r="B24" s="12">
         <f>B19*B23</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="C24" s="12">
         <f>C19*C23</f>
-        <v>6.5110620000000008E-2</v>
+        <v>6.8096836999999993E-2</v>
       </c>
       <c r="D24" s="12">
         <f>D19*D23</f>
-        <v>0.12812514</v>
+        <v>0.134001439</v>
       </c>
       <c r="E24" s="12">
         <f>E19*E23</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -9383,11 +9383,11 @@
       </c>
       <c r="C25" s="12">
         <f>C24-B24</f>
-        <v>2.8531620000000008E-2</v>
+        <v>2.984018699999999E-2</v>
       </c>
       <c r="D25" s="12">
         <f>D24-B24</f>
-        <v>9.1546139999999998E-2</v>
+        <v>9.5744788999999997E-2</v>
       </c>
       <c r="E25" s="12">
         <f>E24-B24</f>
@@ -9415,19 +9415,19 @@
       </c>
       <c r="B28" s="12">
         <f>RISK_SEGMENTS!G9</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
       <c r="C28" s="12">
         <f>B28</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
       <c r="D28" s="12">
         <f>B28</f>
-        <v>0.316579</v>
+        <v>0.31825665000000003</v>
       </c>
       <c r="E28" s="12">
         <f>MAX(B28-(E10/100),cost_of_debt+0.02)</f>
-        <v>0.23657899999999998</v>
+        <v>0.23825665000000001</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="E29" s="12">
         <f>E28/B28</f>
-        <v>0.74729846262702193</v>
+        <v>0.74863054707576415</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -9502,19 +9502,19 @@
       </c>
       <c r="B34" s="12">
         <f>portfolio_PD*portfolio_LGD</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="C34" s="12">
         <f>B34</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="D34" s="12">
         <f>B34</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="E34" s="12">
         <f>B34</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9523,19 +9523,19 @@
       </c>
       <c r="B35" s="12">
         <f>B34</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
       <c r="C35" s="12">
         <f>C19*C23</f>
-        <v>6.5110620000000008E-2</v>
+        <v>6.8096836999999993E-2</v>
       </c>
       <c r="D35" s="12">
         <f>D19*D23</f>
-        <v>0.12812514</v>
+        <v>0.134001439</v>
       </c>
       <c r="E35" s="12">
         <f>E19*E23</f>
-        <v>3.6579E-2</v>
+        <v>3.8256650000000003E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9548,11 +9548,11 @@
       </c>
       <c r="C36" s="12">
         <f>IFERROR(B35/C35,1)</f>
-        <v>0.56179775280898869</v>
+        <v>0.56179775280898891</v>
       </c>
       <c r="D36" s="12">
         <f>IFERROR(B35/D35,1)</f>
-        <v>0.28549432219156989</v>
+        <v>0.28549432219156995</v>
       </c>
       <c r="E36" s="12">
         <f>1</f>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="E37" s="12">
         <f>E29</f>
-        <v>0.74729846262702193</v>
+        <v>0.74863054707576415</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9586,19 +9586,19 @@
       </c>
       <c r="B38" s="12">
         <f>INVESTOR_RETURNS!B36</f>
-        <v>1.023731230348937</v>
+        <v>1.0227431475234487</v>
       </c>
       <c r="C38" s="12">
         <f>IFERROR(B38*C36*C37,0)</f>
-        <v>0.57512990469041392</v>
+        <v>0.57457480197946575</v>
       </c>
       <c r="D38" s="12">
         <f>IFERROR(B38*D36*D37,0)</f>
-        <v>0.27181059195477486</v>
+        <v>0.27154824636080027</v>
       </c>
       <c r="E38" s="12">
         <f>IFERROR(B38*E36*E37,0)</f>
-        <v>0.76503277458303032</v>
+        <v>0.76565676204846844</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9611,15 +9611,15 @@
       </c>
       <c r="C39" s="12">
         <f>C38-B38</f>
-        <v>-0.44860132565852306</v>
+        <v>-0.44816834554398299</v>
       </c>
       <c r="D39" s="12">
         <f>D38-B38</f>
-        <v>-0.75192063839416212</v>
+        <v>-0.75119490116264842</v>
       </c>
       <c r="E39" s="12">
         <f>E38-B38</f>
-        <v>-0.25869845576590667</v>
+        <v>-0.25708638547498031</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9628,19 +9628,19 @@
       </c>
       <c r="B40" s="12">
         <f>INVESTOR_RETURNS!B37</f>
-        <v>0.7166118612442558</v>
+        <v>0.71592020326641403</v>
       </c>
       <c r="C40" s="12">
         <f>C38*(1-tax_rate)</f>
-        <v>0.40259093328328971</v>
+        <v>0.40220236138562598</v>
       </c>
       <c r="D40" s="12">
         <f>D38*(1-tax_rate)</f>
-        <v>0.19026741436834238</v>
+        <v>0.19008377245256017</v>
       </c>
       <c r="E40" s="12">
         <f>E38*(1-tax_rate)</f>
-        <v>0.53552294220812113</v>
+        <v>0.53595973343392789</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9664,19 +9664,19 @@
       </c>
       <c r="B43" s="11">
         <f>INVESTOR_RETURNS!B38</f>
-        <v>7.9843330550169407</v>
+        <v>7.9729259968996598</v>
       </c>
       <c r="C43" s="11">
         <f>INVESTOR_RETURNS!B38*C37*C36</f>
-        <v>4.485580367987045</v>
+        <v>4.4791719083705965</v>
       </c>
       <c r="D43" s="11">
         <f>INVESTOR_RETURNS!B38*D37*D36</f>
-        <v>2.1199180309352417</v>
+        <v>2.1168893461326266</v>
       </c>
       <c r="E43" s="11">
         <f>INVESTOR_RETURNS!B38*E37*E36</f>
-        <v>5.9666798171162734</v>
+        <v>5.9687759508535745</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -9824,19 +9824,19 @@
       </c>
       <c r="B56" s="11" t="str">
         <f>TEXT(B19,"0.0%")</f>
-        <v>8.2%</v>
+        <v>8.6%</v>
       </c>
       <c r="C56" s="11" t="str">
         <f t="shared" ref="C56:E56" si="0">TEXT(C19,"0.0%")</f>
-        <v>14.6%</v>
+        <v>15.3%</v>
       </c>
       <c r="D56" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>23.5%</v>
+        <v>24.6%</v>
       </c>
       <c r="E56" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>8.2%</v>
+        <v>8.6%</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -9866,19 +9866,19 @@
       </c>
       <c r="B58" s="11" t="str">
         <f>TEXT(B24,"0.0%")</f>
-        <v>3.7%</v>
+        <v>3.8%</v>
       </c>
       <c r="C58" s="11" t="str">
         <f t="shared" ref="C58:E58" si="2">TEXT(C24,"0.0%")</f>
-        <v>6.5%</v>
+        <v>6.8%</v>
       </c>
       <c r="D58" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>12.8%</v>
+        <v>13.4%</v>
       </c>
       <c r="E58" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>3.7%</v>
+        <v>3.8%</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -9887,19 +9887,19 @@
       </c>
       <c r="B59" s="11" t="str">
         <f>TEXT(B28,"0.0%")</f>
-        <v>31.7%</v>
+        <v>31.8%</v>
       </c>
       <c r="C59" s="11" t="str">
         <f t="shared" ref="C59:E59" si="3">TEXT(C28,"0.0%")</f>
-        <v>31.7%</v>
+        <v>31.8%</v>
       </c>
       <c r="D59" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>31.7%</v>
+        <v>31.8%</v>
       </c>
       <c r="E59" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>23.7%</v>
+        <v>23.8%</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="B60" s="11" t="str">
         <f>TEXT(B38,"0.0%")</f>
-        <v>102.4%</v>
+        <v>102.3%</v>
       </c>
       <c r="C60" s="11" t="str">
         <f t="shared" ref="C60:E60" si="4">TEXT(C38,"0.0%")</f>
@@ -9920,7 +9920,7 @@
       </c>
       <c r="E60" s="11" t="str">
         <f t="shared" si="4"/>
-        <v>76.5%</v>
+        <v>76.6%</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -9929,11 +9929,11 @@
       </c>
       <c r="B61" s="11" t="str">
         <f>TEXT(B40,"0.0%")</f>
-        <v>71.7%</v>
+        <v>71.6%</v>
       </c>
       <c r="C61" s="11" t="str">
         <f t="shared" ref="C61:E61" si="5">TEXT(C40,"0.0%")</f>
-        <v>40.3%</v>
+        <v>40.2%</v>
       </c>
       <c r="D61" s="11" t="str">
         <f t="shared" si="5"/>
